--- a/02_code/isp_util_data_track.xlsx
+++ b/02_code/isp_util_data_track.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\FHPC\DATA\HCPF_Data_files_SECURE\Kim\isp\isp_utilization\02_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC9A20F-283C-4AC6-A124-EFAF8FEB6173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DE7E4D-04D9-41D1-9164-76E9622F17A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12720" xr2:uid="{F92BBB99-FA83-4502-9D80-103B3D3E3860}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{F92BBB99-FA83-4502-9D80-103B3D3E3860}"/>
   </bookViews>
   <sheets>
     <sheet name="steps_datasets" sheetId="3" r:id="rId1"/>
     <sheet name="colnames" sheetId="1" r:id="rId2"/>
+    <sheet name="libname out" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId4"/>
+    <sheet name="vars" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1">colnames!$A$2:$I$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">colnames!$A$2:$I$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'libname out'!$A$1:$I$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">steps_datasets!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="145">
   <si>
     <t>order</t>
   </si>
@@ -94,9 +98,6 @@
     <t>done</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>bhjt.medicaidlong_bidm</t>
   </si>
   <si>
@@ -193,24 +194,15 @@
     <t>ncols</t>
   </si>
   <si>
-    <t>getMembers aged 0-64</t>
-  </si>
-  <si>
     <t>subset.clnt_dim_v</t>
   </si>
   <si>
-    <t>clnt_dim_v</t>
-  </si>
-  <si>
     <t>gndr_cd</t>
   </si>
   <si>
     <t>race_cd</t>
   </si>
   <si>
-    <t>ethn_cd</t>
-  </si>
-  <si>
     <t>rsdnc_cnty_cd</t>
   </si>
   <si>
@@ -220,9 +212,6 @@
     <t>binary / include data that year</t>
   </si>
   <si>
-    <t>out.clnt_dim_v</t>
-  </si>
-  <si>
     <t>BUDGET_GROUP</t>
   </si>
   <si>
@@ -232,9 +221,6 @@
     <t>FED_POV_LVL_CD</t>
   </si>
   <si>
-    <t>FED_POV_LVL_PC</t>
-  </si>
-  <si>
     <t>SPLM_SCRTY_INCM_IND</t>
   </si>
   <si>
@@ -244,21 +230,6 @@
     <t>SS_DSBLTY_INS_IND</t>
   </si>
   <si>
-    <t>aid_cd_1</t>
-  </si>
-  <si>
-    <t>aid_cd_2</t>
-  </si>
-  <si>
-    <t>aid_cd_3</t>
-  </si>
-  <si>
-    <t>aid_cd_4</t>
-  </si>
-  <si>
-    <t>aid_cd_5</t>
-  </si>
-  <si>
     <t>dual</t>
   </si>
   <si>
@@ -268,32 +239,255 @@
     <t>fost_aid_cd</t>
   </si>
   <si>
-    <t>title19_AID</t>
-  </si>
-  <si>
-    <t>title19_ENR</t>
-  </si>
-  <si>
     <t>date9.</t>
   </si>
   <si>
-    <t>medlong1</t>
-  </si>
-  <si>
-    <t>get info from medicaidlong_bidm (per Carter notes) for 1518</t>
-  </si>
-  <si>
-    <t>get info from medicaidlong_bidm for 1822</t>
-  </si>
-  <si>
-    <t>both ros 2,3 total 95581809</t>
+    <t>ethnc_cd</t>
+  </si>
+  <si>
+    <t>outcome1</t>
+  </si>
+  <si>
+    <t>outcome2</t>
+  </si>
+  <si>
+    <t>outcome3</t>
+  </si>
+  <si>
+    <t>FFS total cost of care in month/quarter</t>
+  </si>
+  <si>
+    <t>Utilization of primary care services</t>
+  </si>
+  <si>
+    <t>outcome</t>
+  </si>
+  <si>
+    <t>varname</t>
+  </si>
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>Utilization of non-ED, non-hospital Capitated BH services</t>
+  </si>
+  <si>
+    <t>covariate</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>1. Utilization of emergency department services - need to decide if include both FFS and Capitated BH ED together or separately</t>
+  </si>
+  <si>
+    <t>2. Hospital Capitated BH services</t>
+  </si>
+  <si>
+    <t>3. FFS hospital services</t>
+  </si>
+  <si>
+    <t>4. FFS BH services</t>
+  </si>
+  <si>
+    <t>5. FFS Diagnostic Procedures</t>
+  </si>
+  <si>
+    <t>6. FFS Transportation</t>
+  </si>
+  <si>
+    <t>7. FFS HH Therapy</t>
+  </si>
+  <si>
+    <t>8. FFS Ancillary</t>
+  </si>
+  <si>
+    <t>9. FFS cost hospitalizations</t>
+  </si>
+  <si>
+    <t>10. FFS cost Primary care</t>
+  </si>
+  <si>
+    <t>11. FFS cost ER</t>
+  </si>
+  <si>
+    <t>12. FFS cost BH</t>
+  </si>
+  <si>
+    <t>13. FFS cost Ancillary</t>
+  </si>
+  <si>
+    <t>14. FFS cost HH Therapy</t>
+  </si>
+  <si>
+    <t>15. FFS cost Diagnostic Procedures</t>
+  </si>
+  <si>
+    <t>16. FFS cost Transportation</t>
+  </si>
+  <si>
+    <t>17. Pharmacy cost – need to decide if separate psychotropic and non-psychotropic costs</t>
+  </si>
+  <si>
+    <t>18. FFS cost Antidepressant</t>
+  </si>
+  <si>
+    <t>19. FFS cost Antipsychotic</t>
+  </si>
+  <si>
+    <t>20. FFS cost Stimulant</t>
+  </si>
+  <si>
+    <t>21. FFS cost Bipolar Drug</t>
+  </si>
+  <si>
+    <t>22. FFS cost Benzodiazapine</t>
+  </si>
+  <si>
+    <t>23. FFS Alpha_2_Agonist</t>
+  </si>
+  <si>
+    <t>work.clnt_dim_v</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Len</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>age_end_fy</t>
+  </si>
+  <si>
+    <t>Num</t>
+  </si>
+  <si>
+    <t>Char</t>
+  </si>
+  <si>
+    <t>MCAID_ID</t>
+  </si>
+  <si>
+    <t>last_day_fy</t>
+  </si>
+  <si>
+    <t>DATE9.</t>
+  </si>
+  <si>
+    <t>Month period of eligibility</t>
+  </si>
+  <si>
+    <t>pcmp_loc_ID</t>
+  </si>
+  <si>
+    <t>PCMP location ID code</t>
+  </si>
+  <si>
+    <t>Client assigned to a RAE</t>
+  </si>
+  <si>
+    <t>BUDGET_GROUP.</t>
+  </si>
+  <si>
+    <t>HCPF budget reporting group assignment (incomplete)</t>
+  </si>
+  <si>
+    <t>$FED_POV_LVL_CD.</t>
+  </si>
+  <si>
+    <t>% of federal poverty level group</t>
+  </si>
+  <si>
+    <t>Qualifying aid code for eligibility assignment</t>
+  </si>
+  <si>
+    <t>Has MEDICARE eligibility in the month, may not be from the qualifying AID Code</t>
+  </si>
+  <si>
+    <t>_ELIGGRP_.</t>
+  </si>
+  <si>
+    <t>Eligibility group</t>
+  </si>
+  <si>
+    <t>County of enrollment</t>
+  </si>
+  <si>
+    <t>AID_CD</t>
+  </si>
+  <si>
+    <t>Managed care flag</t>
+  </si>
+  <si>
+    <t>$PCMPTYPE.</t>
+  </si>
+  <si>
+    <t>PROV_TYP_CD</t>
+  </si>
+  <si>
+    <t>out.finalsubjects</t>
+  </si>
+  <si>
+    <t>out.medlong_y15_y22</t>
+  </si>
+  <si>
+    <t>varnum</t>
+  </si>
+  <si>
+    <t>where = 1</t>
+  </si>
+  <si>
+    <t>where = 0</t>
+  </si>
+  <si>
+    <t>last day of FY</t>
+  </si>
+  <si>
+    <t>age during FY (subset  0-64 only)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">years 1819 - 2122 only </t>
+  </si>
+  <si>
+    <t>Table of age_end_fy by last_day_fy</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>why so many more in 2122??</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ethnicity </t>
+  </si>
+  <si>
+    <t>county</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -349,13 +543,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,8 +561,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -386,12 +591,211 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -406,8 +810,92 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -723,24 +1211,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8818CE6-9BEB-40E3-8037-8B2719372686}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="6.453125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="51.90625" customWidth="1"/>
-    <col min="4" max="4" width="26.81640625" customWidth="1"/>
-    <col min="5" max="5" width="3.453125" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" customWidth="1"/>
-    <col min="8" max="8" width="11.90625" customWidth="1"/>
+    <col min="1" max="2" width="6.44140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="51.88671875" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" customWidth="1"/>
+    <col min="5" max="5" width="3.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
@@ -751,16 +1239,16 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
         <v>48</v>
-      </c>
-      <c r="H1" t="s">
-        <v>49</v>
       </c>
       <c r="I1" t="s">
         <v>12</v>
@@ -775,138 +1263,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="8">
-        <v>2815913</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="8">
-        <v>137226720</v>
-      </c>
-      <c r="K3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J11" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{B8818CE6-9BEB-40E3-8037-8B2719372686}"/>
@@ -917,26 +1302,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8311FC1A-62A8-4F22-B3F4-775CAA248C4D}">
-  <dimension ref="A1:I303"/>
+  <dimension ref="A1:I295"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.54296875" customWidth="1"/>
-    <col min="2" max="2" width="6.1796875" style="2" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" style="2" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="26.453125" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" customWidth="1"/>
-    <col min="7" max="7" width="23.6328125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.08984375" customWidth="1"/>
-    <col min="9" max="9" width="24.453125" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="30" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.109375" customWidth="1"/>
+    <col min="9" max="9" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
@@ -944,16 +1329,16 @@
         <v>9</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -961,16 +1346,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>1</v>
@@ -982,1810 +1367,7421 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="H9" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="H13" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="H14" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="10" t="s">
+      <c r="H15" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="H16" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17"/>
       <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>60</v>
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
       </c>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18"/>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19"/>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20"/>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21"/>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22"/>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23"/>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24"/>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" t="s">
-        <v>38</v>
+        <v>17</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25"/>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26"/>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27"/>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28"/>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29"/>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="G29"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30"/>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>2</v>
-      </c>
-      <c r="G30"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="G30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31"/>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="G31"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32"/>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="G32"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B33"/>
       <c r="C33" t="s">
         <v>44</v>
       </c>
-      <c r="D33" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" t="s">
-        <v>37</v>
-      </c>
       <c r="G33"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B34"/>
       <c r="C34" t="s">
         <v>44</v>
       </c>
-      <c r="D34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" t="s">
-        <v>74</v>
-      </c>
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B35"/>
       <c r="C35" t="s">
         <v>44</v>
       </c>
-      <c r="D35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" t="s">
-        <v>41</v>
-      </c>
       <c r="G35"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36"/>
-      <c r="C36" t="s">
+    <row r="36" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37"/>
-      <c r="C37" t="s">
+    </row>
+    <row r="37" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38"/>
-      <c r="C38" t="s">
+    </row>
+    <row r="38" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39"/>
-      <c r="C39" t="s">
+    </row>
+    <row r="39" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" t="s">
-        <v>75</v>
-      </c>
-      <c r="G39"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40"/>
-      <c r="C40" t="s">
+    </row>
+    <row r="40" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D40" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" t="s">
-        <v>76</v>
-      </c>
-      <c r="G40"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41"/>
-      <c r="C41" t="s">
+    </row>
+    <row r="41" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G41"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42"/>
-      <c r="C42" t="s">
+      <c r="C41" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G42"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43"/>
-      <c r="C43" t="s">
+      <c r="C42" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G43"/>
-    </row>
-    <row r="44" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="C45" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="C46" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="C47" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="C48" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="C49" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="C50" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="C51" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="C52" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="C53" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="C54" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="C55" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="C56" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="C57" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="C58" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="C59" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B60"/>
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B61"/>
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B62"/>
+      <c r="G62"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B63"/>
+      <c r="G63"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B64"/>
+      <c r="G64"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B65"/>
+      <c r="G65"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B66"/>
+      <c r="G66"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B67"/>
+      <c r="G67"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68"/>
       <c r="G68"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70"/>
       <c r="G70"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71"/>
       <c r="G71"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72"/>
       <c r="G72"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74"/>
       <c r="G74"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75"/>
       <c r="G75"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76"/>
       <c r="G76"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77"/>
       <c r="G77"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78"/>
       <c r="G78"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81"/>
       <c r="G81"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82"/>
       <c r="G82"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83"/>
       <c r="G83"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84"/>
       <c r="G84"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87"/>
       <c r="G87"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88"/>
       <c r="G88"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89"/>
       <c r="G89"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B90"/>
       <c r="G90"/>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94"/>
       <c r="G94"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B96"/>
       <c r="G96"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97"/>
       <c r="G97"/>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98"/>
       <c r="G98"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99"/>
       <c r="G99"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100"/>
       <c r="G100"/>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101"/>
       <c r="G101"/>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102"/>
       <c r="G102"/>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103"/>
       <c r="G103"/>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B104"/>
       <c r="G104"/>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B105"/>
       <c r="G105"/>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B106"/>
       <c r="G106"/>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B107"/>
       <c r="G107"/>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B108"/>
       <c r="G108"/>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109"/>
       <c r="G109"/>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B110"/>
       <c r="G110"/>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B111"/>
       <c r="G111"/>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B112"/>
       <c r="G112"/>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B113"/>
       <c r="G113"/>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B114"/>
       <c r="G114"/>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B115"/>
       <c r="G115"/>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116"/>
       <c r="G116"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B117"/>
       <c r="G117"/>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B118"/>
       <c r="G118"/>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B119"/>
       <c r="G119"/>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B120"/>
       <c r="G120"/>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B121"/>
       <c r="G121"/>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B122"/>
       <c r="G122"/>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B123"/>
       <c r="G123"/>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B124"/>
       <c r="G124"/>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B125"/>
       <c r="G125"/>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B126"/>
       <c r="G126"/>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127"/>
       <c r="G127"/>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128"/>
       <c r="G128"/>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B129"/>
       <c r="G129"/>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B130"/>
       <c r="G130"/>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B131"/>
       <c r="G131"/>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B132"/>
       <c r="G132"/>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B133"/>
       <c r="G133"/>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B134"/>
       <c r="G134"/>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B135"/>
       <c r="G135"/>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B136"/>
       <c r="G136"/>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B137"/>
       <c r="G137"/>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B138"/>
       <c r="G138"/>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B139"/>
       <c r="G139"/>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B140"/>
       <c r="G140"/>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B141"/>
       <c r="G141"/>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B142"/>
       <c r="G142"/>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B143"/>
       <c r="G143"/>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B144"/>
       <c r="G144"/>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B145"/>
       <c r="G145"/>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B146"/>
       <c r="G146"/>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B147"/>
       <c r="G147"/>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B148"/>
       <c r="G148"/>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B149"/>
       <c r="G149"/>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B150"/>
       <c r="G150"/>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B151"/>
       <c r="G151"/>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B152"/>
       <c r="G152"/>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B153"/>
       <c r="G153"/>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B154"/>
       <c r="G154"/>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B155"/>
       <c r="G155"/>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B156"/>
       <c r="G156"/>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B157"/>
       <c r="G157"/>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B158"/>
       <c r="G158"/>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B159"/>
       <c r="G159"/>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B160"/>
       <c r="G160"/>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B161"/>
       <c r="G161"/>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B162"/>
       <c r="G162"/>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B163"/>
       <c r="G163"/>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B164"/>
       <c r="G164"/>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B165"/>
       <c r="G165"/>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B166"/>
       <c r="G166"/>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B167"/>
       <c r="G167"/>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B168"/>
       <c r="G168"/>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B169"/>
       <c r="G169"/>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B170"/>
       <c r="G170"/>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B171"/>
       <c r="G171"/>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B172"/>
       <c r="G172"/>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B173"/>
       <c r="G173"/>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B174"/>
       <c r="G174"/>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B175"/>
       <c r="G175"/>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B176"/>
       <c r="G176"/>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B177"/>
       <c r="G177"/>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B178"/>
       <c r="G178"/>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B179"/>
       <c r="G179"/>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B180"/>
       <c r="G180"/>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B181"/>
       <c r="G181"/>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B182"/>
       <c r="G182"/>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B183"/>
       <c r="G183"/>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B184"/>
       <c r="G184"/>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B185"/>
       <c r="G185"/>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B186"/>
       <c r="G186"/>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B187"/>
       <c r="G187"/>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B188"/>
       <c r="G188"/>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B189"/>
       <c r="G189"/>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B190"/>
       <c r="G190"/>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B191"/>
       <c r="G191"/>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B192"/>
       <c r="G192"/>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B193"/>
       <c r="G193"/>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B194"/>
       <c r="G194"/>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B195"/>
       <c r="G195"/>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B196"/>
       <c r="G196"/>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B197"/>
       <c r="G197"/>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B198"/>
       <c r="G198"/>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B199"/>
       <c r="G199"/>
     </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B200"/>
       <c r="G200"/>
     </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B201"/>
       <c r="G201"/>
     </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B202"/>
       <c r="G202"/>
     </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B203"/>
       <c r="G203"/>
     </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B204"/>
       <c r="G204"/>
     </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B205"/>
       <c r="G205"/>
     </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B206"/>
       <c r="G206"/>
     </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B207"/>
       <c r="G207"/>
     </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B208"/>
       <c r="G208"/>
     </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B209"/>
       <c r="G209"/>
     </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B210"/>
       <c r="G210"/>
     </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B211"/>
       <c r="G211"/>
     </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B212"/>
       <c r="G212"/>
     </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B213"/>
       <c r="G213"/>
     </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B214"/>
       <c r="G214"/>
     </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B215"/>
       <c r="G215"/>
     </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B216"/>
       <c r="G216"/>
     </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B217"/>
       <c r="G217"/>
     </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B218"/>
       <c r="G218"/>
     </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B219"/>
       <c r="G219"/>
     </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B220"/>
       <c r="G220"/>
     </row>
-    <row r="221" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B221"/>
       <c r="G221"/>
     </row>
-    <row r="222" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B222"/>
       <c r="G222"/>
     </row>
-    <row r="223" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B223"/>
       <c r="G223"/>
     </row>
-    <row r="224" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B224"/>
       <c r="G224"/>
     </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B225"/>
       <c r="G225"/>
     </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B226"/>
       <c r="G226"/>
     </row>
-    <row r="227" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B227"/>
       <c r="G227"/>
     </row>
-    <row r="228" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B228"/>
       <c r="G228"/>
     </row>
-    <row r="229" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B229"/>
       <c r="G229"/>
     </row>
-    <row r="230" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B230"/>
       <c r="G230"/>
     </row>
-    <row r="231" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B231"/>
       <c r="G231"/>
     </row>
-    <row r="232" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B232"/>
       <c r="G232"/>
     </row>
-    <row r="233" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B233"/>
       <c r="G233"/>
     </row>
-    <row r="234" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B234"/>
       <c r="G234"/>
     </row>
-    <row r="235" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B235"/>
       <c r="G235"/>
     </row>
-    <row r="236" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B236"/>
       <c r="G236"/>
     </row>
-    <row r="237" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B237"/>
       <c r="G237"/>
     </row>
-    <row r="238" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B238"/>
       <c r="G238"/>
     </row>
-    <row r="239" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B239"/>
       <c r="G239"/>
     </row>
-    <row r="240" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B240"/>
       <c r="G240"/>
     </row>
-    <row r="241" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B241"/>
       <c r="G241"/>
     </row>
-    <row r="242" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B242"/>
       <c r="G242"/>
     </row>
-    <row r="243" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B243"/>
       <c r="G243"/>
     </row>
-    <row r="244" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B244"/>
       <c r="G244"/>
     </row>
-    <row r="245" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B245"/>
       <c r="G245"/>
     </row>
-    <row r="246" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B246"/>
       <c r="G246"/>
     </row>
-    <row r="247" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B247"/>
       <c r="G247"/>
     </row>
-    <row r="248" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B248"/>
       <c r="G248"/>
     </row>
-    <row r="249" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B249"/>
       <c r="G249"/>
     </row>
-    <row r="250" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B250"/>
       <c r="G250"/>
     </row>
-    <row r="251" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B251"/>
       <c r="G251"/>
     </row>
-    <row r="252" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B252"/>
       <c r="G252"/>
     </row>
-    <row r="253" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B253"/>
       <c r="G253"/>
     </row>
-    <row r="254" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B254"/>
       <c r="G254"/>
     </row>
-    <row r="255" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B255"/>
       <c r="G255"/>
     </row>
-    <row r="256" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B256"/>
       <c r="G256"/>
     </row>
-    <row r="257" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B257"/>
       <c r="G257"/>
     </row>
-    <row r="258" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B258"/>
       <c r="G258"/>
     </row>
-    <row r="259" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B259"/>
       <c r="G259"/>
     </row>
-    <row r="260" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B260"/>
       <c r="G260"/>
     </row>
-    <row r="261" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B261"/>
       <c r="G261"/>
     </row>
-    <row r="262" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B262"/>
       <c r="G262"/>
     </row>
-    <row r="263" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B263"/>
       <c r="G263"/>
     </row>
-    <row r="264" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B264"/>
       <c r="G264"/>
     </row>
-    <row r="265" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B265"/>
       <c r="G265"/>
     </row>
-    <row r="266" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B266"/>
       <c r="G266"/>
     </row>
-    <row r="267" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B267"/>
       <c r="G267"/>
     </row>
-    <row r="268" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B268"/>
       <c r="G268"/>
     </row>
-    <row r="269" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B269"/>
       <c r="G269"/>
     </row>
-    <row r="270" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B270"/>
       <c r="G270"/>
     </row>
-    <row r="271" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B271"/>
       <c r="G271"/>
     </row>
-    <row r="272" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B272"/>
       <c r="G272"/>
     </row>
-    <row r="273" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B273"/>
       <c r="G273"/>
     </row>
-    <row r="274" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B274"/>
       <c r="G274"/>
     </row>
-    <row r="275" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B275"/>
       <c r="G275"/>
     </row>
-    <row r="276" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B276"/>
       <c r="G276"/>
     </row>
-    <row r="277" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B277"/>
       <c r="G277"/>
     </row>
-    <row r="278" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B278"/>
       <c r="G278"/>
     </row>
-    <row r="279" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B279"/>
       <c r="G279"/>
     </row>
-    <row r="280" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B280"/>
       <c r="G280"/>
     </row>
-    <row r="281" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B281"/>
       <c r="G281"/>
     </row>
-    <row r="282" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B282"/>
       <c r="G282"/>
     </row>
-    <row r="283" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B283"/>
       <c r="G283"/>
     </row>
-    <row r="284" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B284"/>
       <c r="G284"/>
     </row>
-    <row r="285" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B285"/>
       <c r="G285"/>
     </row>
-    <row r="286" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B286"/>
       <c r="G286"/>
     </row>
-    <row r="287" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B287"/>
       <c r="G287"/>
     </row>
-    <row r="288" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B288"/>
       <c r="G288"/>
     </row>
-    <row r="289" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B289"/>
       <c r="G289"/>
     </row>
-    <row r="290" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B290"/>
       <c r="G290"/>
     </row>
-    <row r="291" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B291"/>
       <c r="G291"/>
     </row>
-    <row r="292" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B292"/>
       <c r="G292"/>
     </row>
-    <row r="293" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B293"/>
       <c r="G293"/>
     </row>
-    <row r="294" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B294"/>
       <c r="G294"/>
     </row>
-    <row r="295" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B295"/>
       <c r="G295"/>
     </row>
-    <row r="296" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B296"/>
-      <c r="G296"/>
-    </row>
-    <row r="297" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B297"/>
-      <c r="G297"/>
-    </row>
-    <row r="298" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B298"/>
-      <c r="G298"/>
-    </row>
-    <row r="299" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B299"/>
-      <c r="G299"/>
-    </row>
-    <row r="300" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B300"/>
-      <c r="G300"/>
-    </row>
-    <row r="301" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B301"/>
-      <c r="G301"/>
-    </row>
-    <row r="302" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B302"/>
-      <c r="G302"/>
-    </row>
-    <row r="303" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B303"/>
-      <c r="G303"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:I25" xr:uid="{8311FC1A-62A8-4F22-B3F4-775CAA248C4D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I25">
-      <sortCondition ref="A2:A25"/>
+  <autoFilter ref="A2:I23" xr:uid="{8311FC1A-62A8-4F22-B3F4-775CAA248C4D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I23">
+      <sortCondition ref="A2:A23"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D22EB80-894B-4764-8D89-24BFC2598807}">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="64.88671875" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="19">
+        <v>11</v>
+      </c>
+      <c r="F2" s="23">
+        <v>255</v>
+      </c>
+      <c r="G2" s="20">
+        <v>255</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="18">
+        <v>2</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="19">
+        <v>8</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="18">
+        <v>3</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="19">
+        <v>7</v>
+      </c>
+      <c r="F4" s="23">
+        <v>255</v>
+      </c>
+      <c r="G4" s="20">
+        <v>255</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="18">
+        <v>4</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="19">
+        <v>8</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="18">
+        <v>5</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="19">
+        <v>8</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="18">
+        <v>6</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="19">
+        <v>8</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="18">
+        <v>1</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="19">
+        <v>11</v>
+      </c>
+      <c r="F8" s="23">
+        <v>255</v>
+      </c>
+      <c r="G8" s="20">
+        <v>255</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="18">
+        <v>2</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="19">
+        <v>8</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="18">
+        <v>3</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="19">
+        <v>7</v>
+      </c>
+      <c r="F10" s="23">
+        <v>255</v>
+      </c>
+      <c r="G10" s="20">
+        <v>255</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="18">
+        <v>4</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="19">
+        <v>7</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="20">
+        <v>255</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="18">
+        <v>5</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="19">
+        <v>8</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="18">
+        <v>6</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
+      <c r="F13" s="23">
+        <v>1</v>
+      </c>
+      <c r="G13" s="20">
+        <v>1</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="18">
+        <v>7</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="19">
+        <v>1</v>
+      </c>
+      <c r="F14" s="23">
+        <v>1</v>
+      </c>
+      <c r="G14" s="20">
+        <v>1</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="18">
+        <v>8</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="19">
+        <v>1</v>
+      </c>
+      <c r="F15" s="23">
+        <v>1</v>
+      </c>
+      <c r="G15" s="20">
+        <v>1</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="18">
+        <v>9</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="19">
+        <v>1</v>
+      </c>
+      <c r="F16" s="23">
+        <v>1</v>
+      </c>
+      <c r="G16" s="20">
+        <v>1</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="18">
+        <v>10</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="19">
+        <v>2</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="18">
+        <v>11</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="19">
+        <v>8</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="18">
+        <v>12</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="19">
+        <v>8</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="18">
+        <v>13</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="19">
+        <v>7</v>
+      </c>
+      <c r="F20" s="23">
+        <v>255</v>
+      </c>
+      <c r="G20" s="20">
+        <v>255</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="18">
+        <v>14</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="19">
+        <v>7</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="20">
+        <v>255</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="18">
+        <v>15</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="19">
+        <v>3</v>
+      </c>
+      <c r="F22" s="23">
+        <v>255</v>
+      </c>
+      <c r="G22" s="20">
+        <v>255</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="18">
+        <v>16</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="19">
+        <v>8</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="18">
+        <v>17</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="19">
+        <v>8</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I24" xr:uid="{7D22EB80-894B-4764-8D89-24BFC2598807}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6454E88-D442-417E-9652-07AE2CF9CB6E}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:F268"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="13.21875" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="35"/>
+      <c r="B3" s="25">
+        <v>43646</v>
+      </c>
+      <c r="C3" s="25">
+        <v>44012</v>
+      </c>
+      <c r="D3" s="25">
+        <v>44377</v>
+      </c>
+      <c r="E3" s="25">
+        <v>44742</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="34">
+        <v>0</v>
+      </c>
+      <c r="B4" s="26">
+        <v>1268</v>
+      </c>
+      <c r="C4" s="26">
+        <v>990</v>
+      </c>
+      <c r="D4" s="26">
+        <v>1451</v>
+      </c>
+      <c r="E4" s="26">
+        <v>26688</v>
+      </c>
+      <c r="F4" s="29">
+        <v>30397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="38"/>
+      <c r="B5" s="27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C5" s="27">
+        <v>0.06</v>
+      </c>
+      <c r="D5" s="27">
+        <v>0.08</v>
+      </c>
+      <c r="E5" s="27">
+        <v>1.49</v>
+      </c>
+      <c r="F5" s="30">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="38"/>
+      <c r="B6" s="27">
+        <v>4.17</v>
+      </c>
+      <c r="C6" s="27">
+        <v>3.26</v>
+      </c>
+      <c r="D6" s="27">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="E6" s="27">
+        <v>87.8</v>
+      </c>
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="35"/>
+      <c r="B7" s="28">
+        <v>0.52</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0.65</v>
+      </c>
+      <c r="D7" s="28">
+        <v>1.05</v>
+      </c>
+      <c r="E7" s="28">
+        <v>2.13</v>
+      </c>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="34">
+        <v>1</v>
+      </c>
+      <c r="B8" s="26">
+        <v>5008</v>
+      </c>
+      <c r="C8" s="26">
+        <v>3459</v>
+      </c>
+      <c r="D8" s="26">
+        <v>2492</v>
+      </c>
+      <c r="E8" s="26">
+        <v>28821</v>
+      </c>
+      <c r="F8" s="29">
+        <v>39780</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="38"/>
+      <c r="B9" s="27">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C9" s="27">
+        <v>0.19</v>
+      </c>
+      <c r="D9" s="27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E9" s="27">
+        <v>1.61</v>
+      </c>
+      <c r="F9" s="30">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="38"/>
+      <c r="B10" s="27">
+        <v>12.59</v>
+      </c>
+      <c r="C10" s="27">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D10" s="27">
+        <v>6.26</v>
+      </c>
+      <c r="E10" s="27">
+        <v>72.45</v>
+      </c>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="35"/>
+      <c r="B11" s="28">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C11" s="28">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="D11" s="28">
+        <v>1.81</v>
+      </c>
+      <c r="E11" s="28">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="34">
+        <v>2</v>
+      </c>
+      <c r="B12" s="26">
+        <v>4241</v>
+      </c>
+      <c r="C12" s="26">
+        <v>2755</v>
+      </c>
+      <c r="D12" s="26">
+        <v>2253</v>
+      </c>
+      <c r="E12" s="26">
+        <v>29352</v>
+      </c>
+      <c r="F12" s="29">
+        <v>38601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="38"/>
+      <c r="B13" s="27">
+        <v>0.24</v>
+      </c>
+      <c r="C13" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="D13" s="27">
+        <v>0.13</v>
+      </c>
+      <c r="E13" s="27">
+        <v>1.64</v>
+      </c>
+      <c r="F13" s="30">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="38"/>
+      <c r="B14" s="27">
+        <v>10.99</v>
+      </c>
+      <c r="C14" s="27">
+        <v>7.14</v>
+      </c>
+      <c r="D14" s="27">
+        <v>5.84</v>
+      </c>
+      <c r="E14" s="27">
+        <v>76.040000000000006</v>
+      </c>
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="35"/>
+      <c r="B15" s="28">
+        <v>1.73</v>
+      </c>
+      <c r="C15" s="28">
+        <v>1.8</v>
+      </c>
+      <c r="D15" s="28">
+        <v>1.63</v>
+      </c>
+      <c r="E15" s="28">
+        <v>2.34</v>
+      </c>
+      <c r="F15" s="31"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="34">
+        <v>3</v>
+      </c>
+      <c r="B16" s="26">
+        <v>4442</v>
+      </c>
+      <c r="C16" s="26">
+        <v>2930</v>
+      </c>
+      <c r="D16" s="26">
+        <v>2360</v>
+      </c>
+      <c r="E16" s="26">
+        <v>27817</v>
+      </c>
+      <c r="F16" s="29">
+        <v>37549</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="38"/>
+      <c r="B17" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="C17" s="27">
+        <v>0.16</v>
+      </c>
+      <c r="D17" s="27">
+        <v>0.13</v>
+      </c>
+      <c r="E17" s="27">
+        <v>1.55</v>
+      </c>
+      <c r="F17" s="30">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="38"/>
+      <c r="B18" s="27">
+        <v>11.83</v>
+      </c>
+      <c r="C18" s="27">
+        <v>7.8</v>
+      </c>
+      <c r="D18" s="27">
+        <v>6.29</v>
+      </c>
+      <c r="E18" s="27">
+        <v>74.08</v>
+      </c>
+      <c r="F18" s="30"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="35"/>
+      <c r="B19" s="28">
+        <v>1.82</v>
+      </c>
+      <c r="C19" s="28">
+        <v>1.91</v>
+      </c>
+      <c r="D19" s="28">
+        <v>1.71</v>
+      </c>
+      <c r="E19" s="28">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F19" s="31"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="34">
+        <v>4</v>
+      </c>
+      <c r="B20" s="26">
+        <v>4611</v>
+      </c>
+      <c r="C20" s="26">
+        <v>2954</v>
+      </c>
+      <c r="D20" s="26">
+        <v>2535</v>
+      </c>
+      <c r="E20" s="26">
+        <v>28397</v>
+      </c>
+      <c r="F20" s="29">
+        <v>38497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="38"/>
+      <c r="B21" s="27">
+        <v>0.26</v>
+      </c>
+      <c r="C21" s="27">
+        <v>0.17</v>
+      </c>
+      <c r="D21" s="27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E21" s="27">
+        <v>1.59</v>
+      </c>
+      <c r="F21" s="30">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="38"/>
+      <c r="B22" s="27">
+        <v>11.98</v>
+      </c>
+      <c r="C22" s="27">
+        <v>7.67</v>
+      </c>
+      <c r="D22" s="27">
+        <v>6.58</v>
+      </c>
+      <c r="E22" s="27">
+        <v>73.760000000000005</v>
+      </c>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="35"/>
+      <c r="B23" s="28">
+        <v>1.89</v>
+      </c>
+      <c r="C23" s="28">
+        <v>1.93</v>
+      </c>
+      <c r="D23" s="28">
+        <v>1.84</v>
+      </c>
+      <c r="E23" s="28">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F23" s="31"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="34">
+        <v>5</v>
+      </c>
+      <c r="B24" s="26">
+        <v>4535</v>
+      </c>
+      <c r="C24" s="26">
+        <v>2994</v>
+      </c>
+      <c r="D24" s="26">
+        <v>2801</v>
+      </c>
+      <c r="E24" s="26">
+        <v>28108</v>
+      </c>
+      <c r="F24" s="29">
+        <v>38438</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="38"/>
+      <c r="B25" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="C25" s="27">
+        <v>0.17</v>
+      </c>
+      <c r="D25" s="27">
+        <v>0.16</v>
+      </c>
+      <c r="E25" s="27">
+        <v>1.57</v>
+      </c>
+      <c r="F25" s="30">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="38"/>
+      <c r="B26" s="27">
+        <v>11.8</v>
+      </c>
+      <c r="C26" s="27">
+        <v>7.79</v>
+      </c>
+      <c r="D26" s="27">
+        <v>7.29</v>
+      </c>
+      <c r="E26" s="27">
+        <v>73.13</v>
+      </c>
+      <c r="F26" s="30"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="35"/>
+      <c r="B27" s="28">
+        <v>1.85</v>
+      </c>
+      <c r="C27" s="28">
+        <v>1.95</v>
+      </c>
+      <c r="D27" s="28">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E27" s="28">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F27" s="31"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="34">
+        <v>6</v>
+      </c>
+      <c r="B28" s="26">
+        <v>4512</v>
+      </c>
+      <c r="C28" s="26">
+        <v>2961</v>
+      </c>
+      <c r="D28" s="26">
+        <v>2939</v>
+      </c>
+      <c r="E28" s="26">
+        <v>28208</v>
+      </c>
+      <c r="F28" s="29">
+        <v>38620</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="38"/>
+      <c r="B29" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="C29" s="27">
+        <v>0.17</v>
+      </c>
+      <c r="D29" s="27">
+        <v>0.16</v>
+      </c>
+      <c r="E29" s="27">
+        <v>1.58</v>
+      </c>
+      <c r="F29" s="30">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="38"/>
+      <c r="B30" s="27">
+        <v>11.68</v>
+      </c>
+      <c r="C30" s="27">
+        <v>7.67</v>
+      </c>
+      <c r="D30" s="27">
+        <v>7.61</v>
+      </c>
+      <c r="E30" s="27">
+        <v>73.040000000000006</v>
+      </c>
+      <c r="F30" s="30"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="35"/>
+      <c r="B31" s="28">
+        <v>1.84</v>
+      </c>
+      <c r="C31" s="28">
+        <v>1.93</v>
+      </c>
+      <c r="D31" s="28">
+        <v>2.13</v>
+      </c>
+      <c r="E31" s="28">
+        <v>2.25</v>
+      </c>
+      <c r="F31" s="31"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="34">
+        <v>7</v>
+      </c>
+      <c r="B32" s="26">
+        <v>4339</v>
+      </c>
+      <c r="C32" s="26">
+        <v>2890</v>
+      </c>
+      <c r="D32" s="26">
+        <v>2830</v>
+      </c>
+      <c r="E32" s="26">
+        <v>27881</v>
+      </c>
+      <c r="F32" s="29">
+        <v>37940</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="38"/>
+      <c r="B33" s="27">
+        <v>0.24</v>
+      </c>
+      <c r="C33" s="27">
+        <v>0.16</v>
+      </c>
+      <c r="D33" s="27">
+        <v>0.16</v>
+      </c>
+      <c r="E33" s="27">
+        <v>1.56</v>
+      </c>
+      <c r="F33" s="30">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="38"/>
+      <c r="B34" s="27">
+        <v>11.44</v>
+      </c>
+      <c r="C34" s="27">
+        <v>7.62</v>
+      </c>
+      <c r="D34" s="27">
+        <v>7.46</v>
+      </c>
+      <c r="E34" s="27">
+        <v>73.489999999999995</v>
+      </c>
+      <c r="F34" s="30"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="35"/>
+      <c r="B35" s="28">
+        <v>1.77</v>
+      </c>
+      <c r="C35" s="28">
+        <v>1.88</v>
+      </c>
+      <c r="D35" s="28">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E35" s="28">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F35" s="31"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="34">
+        <v>8</v>
+      </c>
+      <c r="B36" s="26">
+        <v>4592</v>
+      </c>
+      <c r="C36" s="26">
+        <v>2815</v>
+      </c>
+      <c r="D36" s="26">
+        <v>2820</v>
+      </c>
+      <c r="E36" s="26">
+        <v>26982</v>
+      </c>
+      <c r="F36" s="29">
+        <v>37209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="38"/>
+      <c r="B37" s="27">
+        <v>0.26</v>
+      </c>
+      <c r="C37" s="27">
+        <v>0.16</v>
+      </c>
+      <c r="D37" s="27">
+        <v>0.16</v>
+      </c>
+      <c r="E37" s="27">
+        <v>1.51</v>
+      </c>
+      <c r="F37" s="30">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="38"/>
+      <c r="B38" s="27">
+        <v>12.34</v>
+      </c>
+      <c r="C38" s="27">
+        <v>7.57</v>
+      </c>
+      <c r="D38" s="27">
+        <v>7.58</v>
+      </c>
+      <c r="E38" s="27">
+        <v>72.510000000000005</v>
+      </c>
+      <c r="F38" s="30"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="35"/>
+      <c r="B39" s="28">
+        <v>1.88</v>
+      </c>
+      <c r="C39" s="28">
+        <v>1.84</v>
+      </c>
+      <c r="D39" s="28">
+        <v>2.04</v>
+      </c>
+      <c r="E39" s="28">
+        <v>2.15</v>
+      </c>
+      <c r="F39" s="31"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="34">
+        <v>9</v>
+      </c>
+      <c r="B40" s="26">
+        <v>4468</v>
+      </c>
+      <c r="C40" s="26">
+        <v>2837</v>
+      </c>
+      <c r="D40" s="26">
+        <v>2901</v>
+      </c>
+      <c r="E40" s="26">
+        <v>26380</v>
+      </c>
+      <c r="F40" s="29">
+        <v>36586</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="38"/>
+      <c r="B41" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="C41" s="27">
+        <v>0.16</v>
+      </c>
+      <c r="D41" s="27">
+        <v>0.16</v>
+      </c>
+      <c r="E41" s="27">
+        <v>1.47</v>
+      </c>
+      <c r="F41" s="30">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="38"/>
+      <c r="B42" s="27">
+        <v>12.21</v>
+      </c>
+      <c r="C42" s="27">
+        <v>7.75</v>
+      </c>
+      <c r="D42" s="27">
+        <v>7.93</v>
+      </c>
+      <c r="E42" s="27">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F42" s="30"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="35"/>
+      <c r="B43" s="28">
+        <v>1.83</v>
+      </c>
+      <c r="C43" s="28">
+        <v>1.85</v>
+      </c>
+      <c r="D43" s="28">
+        <v>2.1</v>
+      </c>
+      <c r="E43" s="28">
+        <v>2.1</v>
+      </c>
+      <c r="F43" s="31"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="34">
+        <v>10</v>
+      </c>
+      <c r="B44" s="26">
+        <v>4662</v>
+      </c>
+      <c r="C44" s="26">
+        <v>2834</v>
+      </c>
+      <c r="D44" s="26">
+        <v>2835</v>
+      </c>
+      <c r="E44" s="26">
+        <v>25915</v>
+      </c>
+      <c r="F44" s="29">
+        <v>36246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="38"/>
+      <c r="B45" s="27">
+        <v>0.26</v>
+      </c>
+      <c r="C45" s="27">
+        <v>0.16</v>
+      </c>
+      <c r="D45" s="27">
+        <v>0.16</v>
+      </c>
+      <c r="E45" s="27">
+        <v>1.45</v>
+      </c>
+      <c r="F45" s="30">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="38"/>
+      <c r="B46" s="27">
+        <v>12.86</v>
+      </c>
+      <c r="C46" s="27">
+        <v>7.82</v>
+      </c>
+      <c r="D46" s="27">
+        <v>7.82</v>
+      </c>
+      <c r="E46" s="27">
+        <v>71.5</v>
+      </c>
+      <c r="F46" s="30"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="35"/>
+      <c r="B47" s="28">
+        <v>1.91</v>
+      </c>
+      <c r="C47" s="28">
+        <v>1.85</v>
+      </c>
+      <c r="D47" s="28">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E47" s="28">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F47" s="31"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="34">
+        <v>11</v>
+      </c>
+      <c r="B48" s="26">
+        <v>4610</v>
+      </c>
+      <c r="C48" s="26">
+        <v>2856</v>
+      </c>
+      <c r="D48" s="26">
+        <v>2903</v>
+      </c>
+      <c r="E48" s="26">
+        <v>26385</v>
+      </c>
+      <c r="F48" s="29">
+        <v>36754</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="38"/>
+      <c r="B49" s="27">
+        <v>0.26</v>
+      </c>
+      <c r="C49" s="27">
+        <v>0.16</v>
+      </c>
+      <c r="D49" s="27">
+        <v>0.16</v>
+      </c>
+      <c r="E49" s="27">
+        <v>1.47</v>
+      </c>
+      <c r="F49" s="30">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="38"/>
+      <c r="B50" s="27">
+        <v>12.54</v>
+      </c>
+      <c r="C50" s="27">
+        <v>7.77</v>
+      </c>
+      <c r="D50" s="27">
+        <v>7.9</v>
+      </c>
+      <c r="E50" s="27">
+        <v>71.790000000000006</v>
+      </c>
+      <c r="F50" s="30"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="35"/>
+      <c r="B51" s="28">
+        <v>1.88</v>
+      </c>
+      <c r="C51" s="28">
+        <v>1.86</v>
+      </c>
+      <c r="D51" s="28">
+        <v>2.1</v>
+      </c>
+      <c r="E51" s="28">
+        <v>2.1</v>
+      </c>
+      <c r="F51" s="31"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="34">
+        <v>12</v>
+      </c>
+      <c r="B52" s="26">
+        <v>4582</v>
+      </c>
+      <c r="C52" s="26">
+        <v>2937</v>
+      </c>
+      <c r="D52" s="26">
+        <v>2990</v>
+      </c>
+      <c r="E52" s="26">
+        <v>27018</v>
+      </c>
+      <c r="F52" s="29">
+        <v>37527</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="38"/>
+      <c r="B53" s="27">
+        <v>0.26</v>
+      </c>
+      <c r="C53" s="27">
+        <v>0.16</v>
+      </c>
+      <c r="D53" s="27">
+        <v>0.17</v>
+      </c>
+      <c r="E53" s="27">
+        <v>1.51</v>
+      </c>
+      <c r="F53" s="30">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="38"/>
+      <c r="B54" s="27">
+        <v>12.21</v>
+      </c>
+      <c r="C54" s="27">
+        <v>7.83</v>
+      </c>
+      <c r="D54" s="27">
+        <v>7.97</v>
+      </c>
+      <c r="E54" s="27">
+        <v>72</v>
+      </c>
+      <c r="F54" s="30"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="35"/>
+      <c r="B55" s="28">
+        <v>1.87</v>
+      </c>
+      <c r="C55" s="28">
+        <v>1.92</v>
+      </c>
+      <c r="D55" s="28">
+        <v>2.17</v>
+      </c>
+      <c r="E55" s="28">
+        <v>2.15</v>
+      </c>
+      <c r="F55" s="31"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="34">
+        <v>13</v>
+      </c>
+      <c r="B56" s="26">
+        <v>4436</v>
+      </c>
+      <c r="C56" s="26">
+        <v>2794</v>
+      </c>
+      <c r="D56" s="26">
+        <v>2968</v>
+      </c>
+      <c r="E56" s="26">
+        <v>27455</v>
+      </c>
+      <c r="F56" s="29">
+        <v>37653</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="38"/>
+      <c r="B57" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="C57" s="27">
+        <v>0.16</v>
+      </c>
+      <c r="D57" s="27">
+        <v>0.17</v>
+      </c>
+      <c r="E57" s="27">
+        <v>1.53</v>
+      </c>
+      <c r="F57" s="30">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="38"/>
+      <c r="B58" s="27">
+        <v>11.78</v>
+      </c>
+      <c r="C58" s="27">
+        <v>7.42</v>
+      </c>
+      <c r="D58" s="27">
+        <v>7.88</v>
+      </c>
+      <c r="E58" s="27">
+        <v>72.92</v>
+      </c>
+      <c r="F58" s="30"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="35"/>
+      <c r="B59" s="28">
+        <v>1.81</v>
+      </c>
+      <c r="C59" s="28">
+        <v>1.82</v>
+      </c>
+      <c r="D59" s="28">
+        <v>2.15</v>
+      </c>
+      <c r="E59" s="28">
+        <v>2.19</v>
+      </c>
+      <c r="F59" s="31"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="34">
+        <v>14</v>
+      </c>
+      <c r="B60" s="26">
+        <v>4233</v>
+      </c>
+      <c r="C60" s="26">
+        <v>2794</v>
+      </c>
+      <c r="D60" s="26">
+        <v>2965</v>
+      </c>
+      <c r="E60" s="26">
+        <v>27424</v>
+      </c>
+      <c r="F60" s="29">
+        <v>37416</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="38"/>
+      <c r="B61" s="27">
+        <v>0.24</v>
+      </c>
+      <c r="C61" s="27">
+        <v>0.16</v>
+      </c>
+      <c r="D61" s="27">
+        <v>0.17</v>
+      </c>
+      <c r="E61" s="27">
+        <v>1.53</v>
+      </c>
+      <c r="F61" s="30">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="38"/>
+      <c r="B62" s="27">
+        <v>11.31</v>
+      </c>
+      <c r="C62" s="27">
+        <v>7.47</v>
+      </c>
+      <c r="D62" s="27">
+        <v>7.92</v>
+      </c>
+      <c r="E62" s="27">
+        <v>73.290000000000006</v>
+      </c>
+      <c r="F62" s="30"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="35"/>
+      <c r="B63" s="28">
+        <v>1.73</v>
+      </c>
+      <c r="C63" s="28">
+        <v>1.82</v>
+      </c>
+      <c r="D63" s="28">
+        <v>2.15</v>
+      </c>
+      <c r="E63" s="28">
+        <v>2.19</v>
+      </c>
+      <c r="F63" s="31"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="34">
+        <v>15</v>
+      </c>
+      <c r="B64" s="26">
+        <v>4082</v>
+      </c>
+      <c r="C64" s="26">
+        <v>2617</v>
+      </c>
+      <c r="D64" s="26">
+        <v>2791</v>
+      </c>
+      <c r="E64" s="26">
+        <v>27111</v>
+      </c>
+      <c r="F64" s="29">
+        <v>36601</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="38"/>
+      <c r="B65" s="27">
+        <v>0.23</v>
+      </c>
+      <c r="C65" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="D65" s="27">
+        <v>0.16</v>
+      </c>
+      <c r="E65" s="27">
+        <v>1.51</v>
+      </c>
+      <c r="F65" s="30">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="38"/>
+      <c r="B66" s="27">
+        <v>11.15</v>
+      </c>
+      <c r="C66" s="27">
+        <v>7.15</v>
+      </c>
+      <c r="D66" s="27">
+        <v>7.63</v>
+      </c>
+      <c r="E66" s="27">
+        <v>74.069999999999993</v>
+      </c>
+      <c r="F66" s="30"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="35"/>
+      <c r="B67" s="28">
+        <v>1.67</v>
+      </c>
+      <c r="C67" s="28">
+        <v>1.71</v>
+      </c>
+      <c r="D67" s="28">
+        <v>2.02</v>
+      </c>
+      <c r="E67" s="28">
+        <v>2.16</v>
+      </c>
+      <c r="F67" s="31"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="34">
+        <v>16</v>
+      </c>
+      <c r="B68" s="26">
+        <v>3861</v>
+      </c>
+      <c r="C68" s="26">
+        <v>2577</v>
+      </c>
+      <c r="D68" s="26">
+        <v>2621</v>
+      </c>
+      <c r="E68" s="26">
+        <v>26008</v>
+      </c>
+      <c r="F68" s="29">
+        <v>35067</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="38"/>
+      <c r="B69" s="27">
+        <v>0.22</v>
+      </c>
+      <c r="C69" s="27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D69" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="E69" s="27">
+        <v>1.45</v>
+      </c>
+      <c r="F69" s="30">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="38"/>
+      <c r="B70" s="27">
+        <v>11.01</v>
+      </c>
+      <c r="C70" s="27">
+        <v>7.35</v>
+      </c>
+      <c r="D70" s="27">
+        <v>7.47</v>
+      </c>
+      <c r="E70" s="27">
+        <v>74.17</v>
+      </c>
+      <c r="F70" s="30"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="35"/>
+      <c r="B71" s="28">
+        <v>1.58</v>
+      </c>
+      <c r="C71" s="28">
+        <v>1.68</v>
+      </c>
+      <c r="D71" s="28">
+        <v>1.9</v>
+      </c>
+      <c r="E71" s="28">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F71" s="31"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="34">
+        <v>17</v>
+      </c>
+      <c r="B72" s="26">
+        <v>4005</v>
+      </c>
+      <c r="C72" s="26">
+        <v>2590</v>
+      </c>
+      <c r="D72" s="26">
+        <v>2617</v>
+      </c>
+      <c r="E72" s="26">
+        <v>24922</v>
+      </c>
+      <c r="F72" s="29">
+        <v>34134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="38"/>
+      <c r="B73" s="27">
+        <v>0.22</v>
+      </c>
+      <c r="C73" s="27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D73" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="E73" s="27">
+        <v>1.39</v>
+      </c>
+      <c r="F73" s="30">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="38"/>
+      <c r="B74" s="27">
+        <v>11.73</v>
+      </c>
+      <c r="C74" s="27">
+        <v>7.59</v>
+      </c>
+      <c r="D74" s="27">
+        <v>7.67</v>
+      </c>
+      <c r="E74" s="27">
+        <v>73.010000000000005</v>
+      </c>
+      <c r="F74" s="30"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="35"/>
+      <c r="B75" s="28">
+        <v>1.64</v>
+      </c>
+      <c r="C75" s="28">
+        <v>1.69</v>
+      </c>
+      <c r="D75" s="28">
+        <v>1.9</v>
+      </c>
+      <c r="E75" s="28">
+        <v>1.99</v>
+      </c>
+      <c r="F75" s="31"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="34">
+        <v>18</v>
+      </c>
+      <c r="B76" s="26">
+        <v>4839</v>
+      </c>
+      <c r="C76" s="26">
+        <v>2820</v>
+      </c>
+      <c r="D76" s="26">
+        <v>2928</v>
+      </c>
+      <c r="E76" s="26">
+        <v>24508</v>
+      </c>
+      <c r="F76" s="29">
+        <v>35095</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="38"/>
+      <c r="B77" s="27">
+        <v>0.27</v>
+      </c>
+      <c r="C77" s="27">
+        <v>0.16</v>
+      </c>
+      <c r="D77" s="27">
+        <v>0.16</v>
+      </c>
+      <c r="E77" s="27">
+        <v>1.37</v>
+      </c>
+      <c r="F77" s="30">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="38"/>
+      <c r="B78" s="27">
+        <v>13.79</v>
+      </c>
+      <c r="C78" s="27">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="D78" s="27">
+        <v>8.34</v>
+      </c>
+      <c r="E78" s="27">
+        <v>69.83</v>
+      </c>
+      <c r="F78" s="30"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="35"/>
+      <c r="B79" s="28">
+        <v>1.98</v>
+      </c>
+      <c r="C79" s="28">
+        <v>1.84</v>
+      </c>
+      <c r="D79" s="28">
+        <v>2.12</v>
+      </c>
+      <c r="E79" s="28">
+        <v>1.95</v>
+      </c>
+      <c r="F79" s="31"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="34">
+        <v>19</v>
+      </c>
+      <c r="B80" s="26">
+        <v>6616</v>
+      </c>
+      <c r="C80" s="26">
+        <v>3950</v>
+      </c>
+      <c r="D80" s="26">
+        <v>3120</v>
+      </c>
+      <c r="E80" s="26">
+        <v>24540</v>
+      </c>
+      <c r="F80" s="29">
+        <v>38226</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="38"/>
+      <c r="B81" s="27">
+        <v>0.37</v>
+      </c>
+      <c r="C81" s="27">
+        <v>0.22</v>
+      </c>
+      <c r="D81" s="27">
+        <v>0.17</v>
+      </c>
+      <c r="E81" s="27">
+        <v>1.37</v>
+      </c>
+      <c r="F81" s="30">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="38"/>
+      <c r="B82" s="27">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="C82" s="27">
+        <v>10.33</v>
+      </c>
+      <c r="D82" s="27">
+        <v>8.16</v>
+      </c>
+      <c r="E82" s="27">
+        <v>64.2</v>
+      </c>
+      <c r="F82" s="30"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="35"/>
+      <c r="B83" s="28">
+        <v>2.71</v>
+      </c>
+      <c r="C83" s="28">
+        <v>2.58</v>
+      </c>
+      <c r="D83" s="28">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="E83" s="28">
+        <v>1.96</v>
+      </c>
+      <c r="F83" s="31"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="34">
+        <v>20</v>
+      </c>
+      <c r="B84" s="26">
+        <v>5471</v>
+      </c>
+      <c r="C84" s="26">
+        <v>3099</v>
+      </c>
+      <c r="D84" s="26">
+        <v>2744</v>
+      </c>
+      <c r="E84" s="26">
+        <v>23200</v>
+      </c>
+      <c r="F84" s="29">
+        <v>34514</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="38"/>
+      <c r="B85" s="27">
+        <v>0.31</v>
+      </c>
+      <c r="C85" s="27">
+        <v>0.17</v>
+      </c>
+      <c r="D85" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="E85" s="27">
+        <v>1.3</v>
+      </c>
+      <c r="F85" s="30">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="38"/>
+      <c r="B86" s="27">
+        <v>15.85</v>
+      </c>
+      <c r="C86" s="27">
+        <v>8.98</v>
+      </c>
+      <c r="D86" s="27">
+        <v>7.95</v>
+      </c>
+      <c r="E86" s="27">
+        <v>67.22</v>
+      </c>
+      <c r="F86" s="30"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="35"/>
+      <c r="B87" s="28">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="C87" s="28">
+        <v>2.02</v>
+      </c>
+      <c r="D87" s="28">
+        <v>1.99</v>
+      </c>
+      <c r="E87" s="28">
+        <v>1.85</v>
+      </c>
+      <c r="F87" s="31"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="34">
+        <v>21</v>
+      </c>
+      <c r="B88" s="26">
+        <v>5098</v>
+      </c>
+      <c r="C88" s="26">
+        <v>2955</v>
+      </c>
+      <c r="D88" s="26">
+        <v>2317</v>
+      </c>
+      <c r="E88" s="26">
+        <v>21542</v>
+      </c>
+      <c r="F88" s="29">
+        <v>31912</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="38"/>
+      <c r="B89" s="27">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C89" s="27">
+        <v>0.17</v>
+      </c>
+      <c r="D89" s="27">
+        <v>0.13</v>
+      </c>
+      <c r="E89" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="F89" s="30">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="38"/>
+      <c r="B90" s="27">
+        <v>15.98</v>
+      </c>
+      <c r="C90" s="27">
+        <v>9.26</v>
+      </c>
+      <c r="D90" s="27">
+        <v>7.26</v>
+      </c>
+      <c r="E90" s="27">
+        <v>67.5</v>
+      </c>
+      <c r="F90" s="30"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="35"/>
+      <c r="B91" s="28">
+        <v>2.08</v>
+      </c>
+      <c r="C91" s="28">
+        <v>1.93</v>
+      </c>
+      <c r="D91" s="28">
+        <v>1.68</v>
+      </c>
+      <c r="E91" s="28">
+        <v>1.72</v>
+      </c>
+      <c r="F91" s="31"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="34">
+        <v>22</v>
+      </c>
+      <c r="B92" s="26">
+        <v>4668</v>
+      </c>
+      <c r="C92" s="26">
+        <v>2699</v>
+      </c>
+      <c r="D92" s="26">
+        <v>2108</v>
+      </c>
+      <c r="E92" s="26">
+        <v>19600</v>
+      </c>
+      <c r="F92" s="29">
+        <v>29075</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="38"/>
+      <c r="B93" s="27">
+        <v>0.26</v>
+      </c>
+      <c r="C93" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="D93" s="27">
+        <v>0.12</v>
+      </c>
+      <c r="E93" s="27">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F93" s="30">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="38"/>
+      <c r="B94" s="27">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="C94" s="27">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="D94" s="27">
+        <v>7.25</v>
+      </c>
+      <c r="E94" s="27">
+        <v>67.41</v>
+      </c>
+      <c r="F94" s="30"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="35"/>
+      <c r="B95" s="28">
+        <v>1.91</v>
+      </c>
+      <c r="C95" s="28">
+        <v>1.76</v>
+      </c>
+      <c r="D95" s="28">
+        <v>1.53</v>
+      </c>
+      <c r="E95" s="28">
+        <v>1.56</v>
+      </c>
+      <c r="F95" s="31"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="34">
+        <v>23</v>
+      </c>
+      <c r="B96" s="26">
+        <v>4624</v>
+      </c>
+      <c r="C96" s="26">
+        <v>2630</v>
+      </c>
+      <c r="D96" s="26">
+        <v>2042</v>
+      </c>
+      <c r="E96" s="26">
+        <v>19199</v>
+      </c>
+      <c r="F96" s="29">
+        <v>28495</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="38"/>
+      <c r="B97" s="27">
+        <v>0.26</v>
+      </c>
+      <c r="C97" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="D97" s="27">
+        <v>0.11</v>
+      </c>
+      <c r="E97" s="27">
+        <v>1.07</v>
+      </c>
+      <c r="F97" s="30">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="38"/>
+      <c r="B98" s="27">
+        <v>16.23</v>
+      </c>
+      <c r="C98" s="27">
+        <v>9.23</v>
+      </c>
+      <c r="D98" s="27">
+        <v>7.17</v>
+      </c>
+      <c r="E98" s="27">
+        <v>67.38</v>
+      </c>
+      <c r="F98" s="30"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="35"/>
+      <c r="B99" s="28">
+        <v>1.89</v>
+      </c>
+      <c r="C99" s="28">
+        <v>1.72</v>
+      </c>
+      <c r="D99" s="28">
+        <v>1.48</v>
+      </c>
+      <c r="E99" s="28">
+        <v>1.53</v>
+      </c>
+      <c r="F99" s="31"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="34">
+        <v>24</v>
+      </c>
+      <c r="B100" s="26">
+        <v>4516</v>
+      </c>
+      <c r="C100" s="26">
+        <v>2523</v>
+      </c>
+      <c r="D100" s="26">
+        <v>1944</v>
+      </c>
+      <c r="E100" s="26">
+        <v>18738</v>
+      </c>
+      <c r="F100" s="29">
+        <v>27721</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="38"/>
+      <c r="B101" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="C101" s="27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D101" s="27">
+        <v>0.11</v>
+      </c>
+      <c r="E101" s="27">
+        <v>1.05</v>
+      </c>
+      <c r="F101" s="30">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="38"/>
+      <c r="B102" s="27">
+        <v>16.29</v>
+      </c>
+      <c r="C102" s="27">
+        <v>9.1</v>
+      </c>
+      <c r="D102" s="27">
+        <v>7.01</v>
+      </c>
+      <c r="E102" s="27">
+        <v>67.59</v>
+      </c>
+      <c r="F102" s="30"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="35"/>
+      <c r="B103" s="28">
+        <v>1.85</v>
+      </c>
+      <c r="C103" s="28">
+        <v>1.65</v>
+      </c>
+      <c r="D103" s="28">
+        <v>1.41</v>
+      </c>
+      <c r="E103" s="28">
+        <v>1.49</v>
+      </c>
+      <c r="F103" s="31"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="34">
+        <v>25</v>
+      </c>
+      <c r="B104" s="26">
+        <v>4347</v>
+      </c>
+      <c r="C104" s="26">
+        <v>2487</v>
+      </c>
+      <c r="D104" s="26">
+        <v>1911</v>
+      </c>
+      <c r="E104" s="26">
+        <v>18847</v>
+      </c>
+      <c r="F104" s="29">
+        <v>27592</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="38"/>
+      <c r="B105" s="27">
+        <v>0.24</v>
+      </c>
+      <c r="C105" s="27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D105" s="27">
+        <v>0.11</v>
+      </c>
+      <c r="E105" s="27">
+        <v>1.05</v>
+      </c>
+      <c r="F105" s="30">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="38"/>
+      <c r="B106" s="27">
+        <v>15.75</v>
+      </c>
+      <c r="C106" s="27">
+        <v>9.01</v>
+      </c>
+      <c r="D106" s="27">
+        <v>6.93</v>
+      </c>
+      <c r="E106" s="27">
+        <v>68.31</v>
+      </c>
+      <c r="F106" s="30"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="35"/>
+      <c r="B107" s="28">
+        <v>1.78</v>
+      </c>
+      <c r="C107" s="28">
+        <v>1.62</v>
+      </c>
+      <c r="D107" s="28">
+        <v>1.38</v>
+      </c>
+      <c r="E107" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="F107" s="31"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="34">
+        <v>26</v>
+      </c>
+      <c r="B108" s="26">
+        <v>4496</v>
+      </c>
+      <c r="C108" s="26">
+        <v>2741</v>
+      </c>
+      <c r="D108" s="26">
+        <v>2135</v>
+      </c>
+      <c r="E108" s="26">
+        <v>20531</v>
+      </c>
+      <c r="F108" s="29">
+        <v>29903</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="38"/>
+      <c r="B109" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="C109" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="D109" s="27">
+        <v>0.12</v>
+      </c>
+      <c r="E109" s="27">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F109" s="30">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="38"/>
+      <c r="B110" s="27">
+        <v>15.04</v>
+      </c>
+      <c r="C110" s="27">
+        <v>9.17</v>
+      </c>
+      <c r="D110" s="27">
+        <v>7.14</v>
+      </c>
+      <c r="E110" s="27">
+        <v>68.66</v>
+      </c>
+      <c r="F110" s="30"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="35"/>
+      <c r="B111" s="28">
+        <v>1.84</v>
+      </c>
+      <c r="C111" s="28">
+        <v>1.79</v>
+      </c>
+      <c r="D111" s="28">
+        <v>1.55</v>
+      </c>
+      <c r="E111" s="28">
+        <v>1.64</v>
+      </c>
+      <c r="F111" s="31"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="34">
+        <v>27</v>
+      </c>
+      <c r="B112" s="26">
+        <v>5187</v>
+      </c>
+      <c r="C112" s="26">
+        <v>3043</v>
+      </c>
+      <c r="D112" s="26">
+        <v>2355</v>
+      </c>
+      <c r="E112" s="26">
+        <v>21452</v>
+      </c>
+      <c r="F112" s="29">
+        <v>32037</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="38"/>
+      <c r="B113" s="27">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C113" s="27">
+        <v>0.17</v>
+      </c>
+      <c r="D113" s="27">
+        <v>0.13</v>
+      </c>
+      <c r="E113" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="F113" s="30">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="38"/>
+      <c r="B114" s="27">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="C114" s="27">
+        <v>9.5</v>
+      </c>
+      <c r="D114" s="27">
+        <v>7.35</v>
+      </c>
+      <c r="E114" s="27">
+        <v>66.959999999999994</v>
+      </c>
+      <c r="F114" s="30"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="35"/>
+      <c r="B115" s="28">
+        <v>2.12</v>
+      </c>
+      <c r="C115" s="28">
+        <v>1.98</v>
+      </c>
+      <c r="D115" s="28">
+        <v>1.71</v>
+      </c>
+      <c r="E115" s="28">
+        <v>1.71</v>
+      </c>
+      <c r="F115" s="31"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="34">
+        <v>28</v>
+      </c>
+      <c r="B116" s="26">
+        <v>5236</v>
+      </c>
+      <c r="C116" s="26">
+        <v>3237</v>
+      </c>
+      <c r="D116" s="26">
+        <v>2431</v>
+      </c>
+      <c r="E116" s="26">
+        <v>22652</v>
+      </c>
+      <c r="F116" s="29">
+        <v>33556</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="38"/>
+      <c r="B117" s="27">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C117" s="27">
+        <v>0.18</v>
+      </c>
+      <c r="D117" s="27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E117" s="27">
+        <v>1.27</v>
+      </c>
+      <c r="F117" s="30">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="38"/>
+      <c r="B118" s="27">
+        <v>15.6</v>
+      </c>
+      <c r="C118" s="27">
+        <v>9.65</v>
+      </c>
+      <c r="D118" s="27">
+        <v>7.24</v>
+      </c>
+      <c r="E118" s="27">
+        <v>67.510000000000005</v>
+      </c>
+      <c r="F118" s="30"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="35"/>
+      <c r="B119" s="28">
+        <v>2.14</v>
+      </c>
+      <c r="C119" s="28">
+        <v>2.11</v>
+      </c>
+      <c r="D119" s="28">
+        <v>1.76</v>
+      </c>
+      <c r="E119" s="28">
+        <v>1.81</v>
+      </c>
+      <c r="F119" s="31"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="34">
+        <v>29</v>
+      </c>
+      <c r="B120" s="26">
+        <v>5125</v>
+      </c>
+      <c r="C120" s="26">
+        <v>3161</v>
+      </c>
+      <c r="D120" s="26">
+        <v>2498</v>
+      </c>
+      <c r="E120" s="26">
+        <v>23414</v>
+      </c>
+      <c r="F120" s="29">
+        <v>34198</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="38"/>
+      <c r="B121" s="27">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C121" s="27">
+        <v>0.18</v>
+      </c>
+      <c r="D121" s="27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E121" s="27">
+        <v>1.31</v>
+      </c>
+      <c r="F121" s="30">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="38"/>
+      <c r="B122" s="27">
+        <v>14.99</v>
+      </c>
+      <c r="C122" s="27">
+        <v>9.24</v>
+      </c>
+      <c r="D122" s="27">
+        <v>7.3</v>
+      </c>
+      <c r="E122" s="27">
+        <v>68.47</v>
+      </c>
+      <c r="F122" s="30"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="35"/>
+      <c r="B123" s="28">
+        <v>2.1</v>
+      </c>
+      <c r="C123" s="28">
+        <v>2.06</v>
+      </c>
+      <c r="D123" s="28">
+        <v>1.81</v>
+      </c>
+      <c r="E123" s="28">
+        <v>1.87</v>
+      </c>
+      <c r="F123" s="31"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="34">
+        <v>30</v>
+      </c>
+      <c r="B124" s="26">
+        <v>4876</v>
+      </c>
+      <c r="C124" s="26">
+        <v>3021</v>
+      </c>
+      <c r="D124" s="26">
+        <v>2482</v>
+      </c>
+      <c r="E124" s="26">
+        <v>23635</v>
+      </c>
+      <c r="F124" s="29">
+        <v>34014</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="38"/>
+      <c r="B125" s="27">
+        <v>0.27</v>
+      </c>
+      <c r="C125" s="27">
+        <v>0.17</v>
+      </c>
+      <c r="D125" s="27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E125" s="27">
+        <v>1.32</v>
+      </c>
+      <c r="F125" s="30">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="38"/>
+      <c r="B126" s="27">
+        <v>14.34</v>
+      </c>
+      <c r="C126" s="27">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="D126" s="27">
+        <v>7.3</v>
+      </c>
+      <c r="E126" s="27">
+        <v>69.489999999999995</v>
+      </c>
+      <c r="F126" s="30"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="35"/>
+      <c r="B127" s="28">
+        <v>1.99</v>
+      </c>
+      <c r="C127" s="28">
+        <v>1.97</v>
+      </c>
+      <c r="D127" s="28">
+        <v>1.8</v>
+      </c>
+      <c r="E127" s="28">
+        <v>1.88</v>
+      </c>
+      <c r="F127" s="31"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="34">
+        <v>31</v>
+      </c>
+      <c r="B128" s="26">
+        <v>4678</v>
+      </c>
+      <c r="C128" s="26">
+        <v>2989</v>
+      </c>
+      <c r="D128" s="26">
+        <v>2390</v>
+      </c>
+      <c r="E128" s="26">
+        <v>23712</v>
+      </c>
+      <c r="F128" s="29">
+        <v>33769</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="38"/>
+      <c r="B129" s="27">
+        <v>0.26</v>
+      </c>
+      <c r="C129" s="27">
+        <v>0.17</v>
+      </c>
+      <c r="D129" s="27">
+        <v>0.13</v>
+      </c>
+      <c r="E129" s="27">
+        <v>1.32</v>
+      </c>
+      <c r="F129" s="30">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="38"/>
+      <c r="B130" s="27">
+        <v>13.85</v>
+      </c>
+      <c r="C130" s="27">
+        <v>8.85</v>
+      </c>
+      <c r="D130" s="27">
+        <v>7.08</v>
+      </c>
+      <c r="E130" s="27">
+        <v>70.22</v>
+      </c>
+      <c r="F130" s="30"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="35"/>
+      <c r="B131" s="28">
+        <v>1.91</v>
+      </c>
+      <c r="C131" s="28">
+        <v>1.95</v>
+      </c>
+      <c r="D131" s="28">
+        <v>1.73</v>
+      </c>
+      <c r="E131" s="28">
+        <v>1.89</v>
+      </c>
+      <c r="F131" s="31"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="34">
+        <v>32</v>
+      </c>
+      <c r="B132" s="26">
+        <v>4570</v>
+      </c>
+      <c r="C132" s="26">
+        <v>2847</v>
+      </c>
+      <c r="D132" s="26">
+        <v>2308</v>
+      </c>
+      <c r="E132" s="26">
+        <v>23088</v>
+      </c>
+      <c r="F132" s="29">
+        <v>32813</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="38"/>
+      <c r="B133" s="27">
+        <v>0.26</v>
+      </c>
+      <c r="C133" s="27">
+        <v>0.16</v>
+      </c>
+      <c r="D133" s="27">
+        <v>0.13</v>
+      </c>
+      <c r="E133" s="27">
+        <v>1.29</v>
+      </c>
+      <c r="F133" s="30">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="38"/>
+      <c r="B134" s="27">
+        <v>13.93</v>
+      </c>
+      <c r="C134" s="27">
+        <v>8.68</v>
+      </c>
+      <c r="D134" s="27">
+        <v>7.03</v>
+      </c>
+      <c r="E134" s="27">
+        <v>70.36</v>
+      </c>
+      <c r="F134" s="30"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="35"/>
+      <c r="B135" s="28">
+        <v>1.87</v>
+      </c>
+      <c r="C135" s="28">
+        <v>1.86</v>
+      </c>
+      <c r="D135" s="28">
+        <v>1.67</v>
+      </c>
+      <c r="E135" s="28">
+        <v>1.84</v>
+      </c>
+      <c r="F135" s="31"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="34">
+        <v>33</v>
+      </c>
+      <c r="B136" s="26">
+        <v>4285</v>
+      </c>
+      <c r="C136" s="26">
+        <v>2713</v>
+      </c>
+      <c r="D136" s="26">
+        <v>2194</v>
+      </c>
+      <c r="E136" s="26">
+        <v>22045</v>
+      </c>
+      <c r="F136" s="29">
+        <v>31237</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="38"/>
+      <c r="B137" s="27">
+        <v>0.24</v>
+      </c>
+      <c r="C137" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="D137" s="27">
+        <v>0.12</v>
+      </c>
+      <c r="E137" s="27">
+        <v>1.23</v>
+      </c>
+      <c r="F137" s="30">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="38"/>
+      <c r="B138" s="27">
+        <v>13.72</v>
+      </c>
+      <c r="C138" s="27">
+        <v>8.69</v>
+      </c>
+      <c r="D138" s="27">
+        <v>7.02</v>
+      </c>
+      <c r="E138" s="27">
+        <v>70.569999999999993</v>
+      </c>
+      <c r="F138" s="30"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="35"/>
+      <c r="B139" s="28">
+        <v>1.75</v>
+      </c>
+      <c r="C139" s="28">
+        <v>1.77</v>
+      </c>
+      <c r="D139" s="28">
+        <v>1.59</v>
+      </c>
+      <c r="E139" s="28">
+        <v>1.76</v>
+      </c>
+      <c r="F139" s="31"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="34">
+        <v>34</v>
+      </c>
+      <c r="B140" s="26">
+        <v>4019</v>
+      </c>
+      <c r="C140" s="26">
+        <v>2586</v>
+      </c>
+      <c r="D140" s="26">
+        <v>2155</v>
+      </c>
+      <c r="E140" s="26">
+        <v>21200</v>
+      </c>
+      <c r="F140" s="29">
+        <v>29960</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="38"/>
+      <c r="B141" s="27">
+        <v>0.22</v>
+      </c>
+      <c r="C141" s="27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D141" s="27">
+        <v>0.12</v>
+      </c>
+      <c r="E141" s="27">
+        <v>1.18</v>
+      </c>
+      <c r="F141" s="30">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="38"/>
+      <c r="B142" s="27">
+        <v>13.41</v>
+      </c>
+      <c r="C142" s="27">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="D142" s="27">
+        <v>7.19</v>
+      </c>
+      <c r="E142" s="27">
+        <v>70.760000000000005</v>
+      </c>
+      <c r="F142" s="30"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="35"/>
+      <c r="B143" s="28">
+        <v>1.64</v>
+      </c>
+      <c r="C143" s="28">
+        <v>1.69</v>
+      </c>
+      <c r="D143" s="28">
+        <v>1.56</v>
+      </c>
+      <c r="E143" s="28">
+        <v>1.69</v>
+      </c>
+      <c r="F143" s="31"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="34">
+        <v>35</v>
+      </c>
+      <c r="B144" s="26">
+        <v>3972</v>
+      </c>
+      <c r="C144" s="26">
+        <v>2344</v>
+      </c>
+      <c r="D144" s="26">
+        <v>2135</v>
+      </c>
+      <c r="E144" s="26">
+        <v>20374</v>
+      </c>
+      <c r="F144" s="29">
+        <v>28825</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="38"/>
+      <c r="B145" s="27">
+        <v>0.22</v>
+      </c>
+      <c r="C145" s="27">
+        <v>0.13</v>
+      </c>
+      <c r="D145" s="27">
+        <v>0.12</v>
+      </c>
+      <c r="E145" s="27">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F145" s="30">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="38"/>
+      <c r="B146" s="27">
+        <v>13.78</v>
+      </c>
+      <c r="C146" s="27">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="D146" s="27">
+        <v>7.41</v>
+      </c>
+      <c r="E146" s="27">
+        <v>70.680000000000007</v>
+      </c>
+      <c r="F146" s="30"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="35"/>
+      <c r="B147" s="28">
+        <v>1.62</v>
+      </c>
+      <c r="C147" s="28">
+        <v>1.53</v>
+      </c>
+      <c r="D147" s="28">
+        <v>1.55</v>
+      </c>
+      <c r="E147" s="28">
+        <v>1.62</v>
+      </c>
+      <c r="F147" s="31"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="34">
+        <v>36</v>
+      </c>
+      <c r="B148" s="26">
+        <v>3904</v>
+      </c>
+      <c r="C148" s="26">
+        <v>2356</v>
+      </c>
+      <c r="D148" s="26">
+        <v>2118</v>
+      </c>
+      <c r="E148" s="26">
+        <v>19654</v>
+      </c>
+      <c r="F148" s="29">
+        <v>28032</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="38"/>
+      <c r="B149" s="27">
+        <v>0.22</v>
+      </c>
+      <c r="C149" s="27">
+        <v>0.13</v>
+      </c>
+      <c r="D149" s="27">
+        <v>0.12</v>
+      </c>
+      <c r="E149" s="27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F149" s="30">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="38"/>
+      <c r="B150" s="27">
+        <v>13.93</v>
+      </c>
+      <c r="C150" s="27">
+        <v>8.4</v>
+      </c>
+      <c r="D150" s="27">
+        <v>7.56</v>
+      </c>
+      <c r="E150" s="27">
+        <v>70.11</v>
+      </c>
+      <c r="F150" s="30"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="35"/>
+      <c r="B151" s="28">
+        <v>1.6</v>
+      </c>
+      <c r="C151" s="28">
+        <v>1.54</v>
+      </c>
+      <c r="D151" s="28">
+        <v>1.53</v>
+      </c>
+      <c r="E151" s="28">
+        <v>1.57</v>
+      </c>
+      <c r="F151" s="31"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="34">
+        <v>37</v>
+      </c>
+      <c r="B152" s="26">
+        <v>3659</v>
+      </c>
+      <c r="C152" s="26">
+        <v>2169</v>
+      </c>
+      <c r="D152" s="26">
+        <v>1872</v>
+      </c>
+      <c r="E152" s="26">
+        <v>18761</v>
+      </c>
+      <c r="F152" s="29">
+        <v>26461</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="38"/>
+      <c r="B153" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C153" s="27">
+        <v>0.12</v>
+      </c>
+      <c r="D153" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="E153" s="27">
+        <v>1.05</v>
+      </c>
+      <c r="F153" s="30">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="38"/>
+      <c r="B154" s="27">
+        <v>13.83</v>
+      </c>
+      <c r="C154" s="27">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D154" s="27">
+        <v>7.07</v>
+      </c>
+      <c r="E154" s="27">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="F154" s="30"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="35"/>
+      <c r="B155" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="C155" s="28">
+        <v>1.41</v>
+      </c>
+      <c r="D155" s="28">
+        <v>1.36</v>
+      </c>
+      <c r="E155" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="F155" s="31"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="34">
+        <v>38</v>
+      </c>
+      <c r="B156" s="26">
+        <v>3596</v>
+      </c>
+      <c r="C156" s="26">
+        <v>2308</v>
+      </c>
+      <c r="D156" s="26">
+        <v>1870</v>
+      </c>
+      <c r="E156" s="26">
+        <v>17913</v>
+      </c>
+      <c r="F156" s="29">
+        <v>25687</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="38"/>
+      <c r="B157" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="C157" s="27">
+        <v>0.13</v>
+      </c>
+      <c r="D157" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="E157" s="27">
+        <v>1</v>
+      </c>
+      <c r="F157" s="30">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="38"/>
+      <c r="B158" s="27">
+        <v>14</v>
+      </c>
+      <c r="C158" s="27">
+        <v>8.99</v>
+      </c>
+      <c r="D158" s="27">
+        <v>7.28</v>
+      </c>
+      <c r="E158" s="27">
+        <v>69.739999999999995</v>
+      </c>
+      <c r="F158" s="30"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="35"/>
+      <c r="B159" s="28">
+        <v>1.47</v>
+      </c>
+      <c r="C159" s="28">
+        <v>1.51</v>
+      </c>
+      <c r="D159" s="28">
+        <v>1.35</v>
+      </c>
+      <c r="E159" s="28">
+        <v>1.43</v>
+      </c>
+      <c r="F159" s="31"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="34">
+        <v>39</v>
+      </c>
+      <c r="B160" s="26">
+        <v>3470</v>
+      </c>
+      <c r="C160" s="26">
+        <v>2091</v>
+      </c>
+      <c r="D160" s="26">
+        <v>1842</v>
+      </c>
+      <c r="E160" s="26">
+        <v>17669</v>
+      </c>
+      <c r="F160" s="29">
+        <v>25072</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="38"/>
+      <c r="B161" s="27">
+        <v>0.19</v>
+      </c>
+      <c r="C161" s="27">
+        <v>0.12</v>
+      </c>
+      <c r="D161" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="E161" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="F161" s="30">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="38"/>
+      <c r="B162" s="27">
+        <v>13.84</v>
+      </c>
+      <c r="C162" s="27">
+        <v>8.34</v>
+      </c>
+      <c r="D162" s="27">
+        <v>7.35</v>
+      </c>
+      <c r="E162" s="27">
+        <v>70.47</v>
+      </c>
+      <c r="F162" s="30"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="35"/>
+      <c r="B163" s="28">
+        <v>1.42</v>
+      </c>
+      <c r="C163" s="28">
+        <v>1.36</v>
+      </c>
+      <c r="D163" s="28">
+        <v>1.33</v>
+      </c>
+      <c r="E163" s="28">
+        <v>1.41</v>
+      </c>
+      <c r="F163" s="31"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="34">
+        <v>40</v>
+      </c>
+      <c r="B164" s="26">
+        <v>3208</v>
+      </c>
+      <c r="C164" s="26">
+        <v>1920</v>
+      </c>
+      <c r="D164" s="26">
+        <v>1810</v>
+      </c>
+      <c r="E164" s="26">
+        <v>17416</v>
+      </c>
+      <c r="F164" s="29">
+        <v>24354</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="38"/>
+      <c r="B165" s="27">
+        <v>0.18</v>
+      </c>
+      <c r="C165" s="27">
+        <v>0.11</v>
+      </c>
+      <c r="D165" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="E165" s="27">
+        <v>0.97</v>
+      </c>
+      <c r="F165" s="30">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="38"/>
+      <c r="B166" s="27">
+        <v>13.17</v>
+      </c>
+      <c r="C166" s="27">
+        <v>7.88</v>
+      </c>
+      <c r="D166" s="27">
+        <v>7.43</v>
+      </c>
+      <c r="E166" s="27">
+        <v>71.510000000000005</v>
+      </c>
+      <c r="F166" s="30"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="35"/>
+      <c r="B167" s="28">
+        <v>1.31</v>
+      </c>
+      <c r="C167" s="28">
+        <v>1.25</v>
+      </c>
+      <c r="D167" s="28">
+        <v>1.31</v>
+      </c>
+      <c r="E167" s="28">
+        <v>1.39</v>
+      </c>
+      <c r="F167" s="31"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="34">
+        <v>41</v>
+      </c>
+      <c r="B168" s="26">
+        <v>3079</v>
+      </c>
+      <c r="C168" s="26">
+        <v>1827</v>
+      </c>
+      <c r="D168" s="26">
+        <v>1644</v>
+      </c>
+      <c r="E168" s="26">
+        <v>16610</v>
+      </c>
+      <c r="F168" s="29">
+        <v>23160</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="38"/>
+      <c r="B169" s="27">
+        <v>0.17</v>
+      </c>
+      <c r="C169" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="D169" s="27">
+        <v>0.09</v>
+      </c>
+      <c r="E169" s="27">
+        <v>0.93</v>
+      </c>
+      <c r="F169" s="30">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="38"/>
+      <c r="B170" s="27">
+        <v>13.29</v>
+      </c>
+      <c r="C170" s="27">
+        <v>7.89</v>
+      </c>
+      <c r="D170" s="27">
+        <v>7.1</v>
+      </c>
+      <c r="E170" s="27">
+        <v>71.72</v>
+      </c>
+      <c r="F170" s="30"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="35"/>
+      <c r="B171" s="28">
+        <v>1.26</v>
+      </c>
+      <c r="C171" s="28">
+        <v>1.19</v>
+      </c>
+      <c r="D171" s="28">
+        <v>1.19</v>
+      </c>
+      <c r="E171" s="28">
+        <v>1.32</v>
+      </c>
+      <c r="F171" s="31"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="34">
+        <v>42</v>
+      </c>
+      <c r="B172" s="26">
+        <v>2839</v>
+      </c>
+      <c r="C172" s="26">
+        <v>1791</v>
+      </c>
+      <c r="D172" s="26">
+        <v>1581</v>
+      </c>
+      <c r="E172" s="26">
+        <v>15765</v>
+      </c>
+      <c r="F172" s="29">
+        <v>21976</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="38"/>
+      <c r="B173" s="27">
+        <v>0.16</v>
+      </c>
+      <c r="C173" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="D173" s="27">
+        <v>0.09</v>
+      </c>
+      <c r="E173" s="27">
+        <v>0.88</v>
+      </c>
+      <c r="F173" s="30">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="38"/>
+      <c r="B174" s="27">
+        <v>12.92</v>
+      </c>
+      <c r="C174" s="27">
+        <v>8.15</v>
+      </c>
+      <c r="D174" s="27">
+        <v>7.19</v>
+      </c>
+      <c r="E174" s="27">
+        <v>71.739999999999995</v>
+      </c>
+      <c r="F174" s="30"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="35"/>
+      <c r="B175" s="28">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C175" s="28">
+        <v>1.17</v>
+      </c>
+      <c r="D175" s="28">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E175" s="28">
+        <v>1.26</v>
+      </c>
+      <c r="F175" s="31"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="34">
+        <v>43</v>
+      </c>
+      <c r="B176" s="26">
+        <v>2695</v>
+      </c>
+      <c r="C176" s="26">
+        <v>1647</v>
+      </c>
+      <c r="D176" s="26">
+        <v>1503</v>
+      </c>
+      <c r="E176" s="26">
+        <v>14451</v>
+      </c>
+      <c r="F176" s="29">
+        <v>20296</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="38"/>
+      <c r="B177" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="C177" s="27">
+        <v>0.09</v>
+      </c>
+      <c r="D177" s="27">
+        <v>0.08</v>
+      </c>
+      <c r="E177" s="27">
+        <v>0.81</v>
+      </c>
+      <c r="F177" s="30">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="38"/>
+      <c r="B178" s="27">
+        <v>13.28</v>
+      </c>
+      <c r="C178" s="27">
+        <v>8.11</v>
+      </c>
+      <c r="D178" s="27">
+        <v>7.41</v>
+      </c>
+      <c r="E178" s="27">
+        <v>71.2</v>
+      </c>
+      <c r="F178" s="30"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="35"/>
+      <c r="B179" s="28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C179" s="28">
+        <v>1.07</v>
+      </c>
+      <c r="D179" s="28">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E179" s="28">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F179" s="31"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="34">
+        <v>44</v>
+      </c>
+      <c r="B180" s="26">
+        <v>2595</v>
+      </c>
+      <c r="C180" s="26">
+        <v>1550</v>
+      </c>
+      <c r="D180" s="26">
+        <v>1357</v>
+      </c>
+      <c r="E180" s="26">
+        <v>13485</v>
+      </c>
+      <c r="F180" s="29">
+        <v>18987</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="38"/>
+      <c r="B181" s="27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C181" s="27">
+        <v>0.09</v>
+      </c>
+      <c r="D181" s="27">
+        <v>0.08</v>
+      </c>
+      <c r="E181" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="F181" s="30">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="38"/>
+      <c r="B182" s="27">
+        <v>13.67</v>
+      </c>
+      <c r="C182" s="27">
+        <v>8.16</v>
+      </c>
+      <c r="D182" s="27">
+        <v>7.15</v>
+      </c>
+      <c r="E182" s="27">
+        <v>71.02</v>
+      </c>
+      <c r="F182" s="30"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="35"/>
+      <c r="B183" s="28">
+        <v>1.06</v>
+      </c>
+      <c r="C183" s="28">
+        <v>1.01</v>
+      </c>
+      <c r="D183" s="28">
+        <v>0.98</v>
+      </c>
+      <c r="E183" s="28">
+        <v>1.08</v>
+      </c>
+      <c r="F183" s="31"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="34">
+        <v>45</v>
+      </c>
+      <c r="B184" s="26">
+        <v>2413</v>
+      </c>
+      <c r="C184" s="26">
+        <v>1432</v>
+      </c>
+      <c r="D184" s="26">
+        <v>1234</v>
+      </c>
+      <c r="E184" s="26">
+        <v>12750</v>
+      </c>
+      <c r="F184" s="29">
+        <v>17829</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="38"/>
+      <c r="B185" s="27">
+        <v>0.13</v>
+      </c>
+      <c r="C185" s="27">
+        <v>0.08</v>
+      </c>
+      <c r="D185" s="27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E185" s="27">
+        <v>0.71</v>
+      </c>
+      <c r="F185" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="38"/>
+      <c r="B186" s="27">
+        <v>13.53</v>
+      </c>
+      <c r="C186" s="27">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="D186" s="27">
+        <v>6.92</v>
+      </c>
+      <c r="E186" s="27">
+        <v>71.510000000000005</v>
+      </c>
+      <c r="F186" s="30"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="35"/>
+      <c r="B187" s="28">
+        <v>0.99</v>
+      </c>
+      <c r="C187" s="28">
+        <v>0.93</v>
+      </c>
+      <c r="D187" s="28">
+        <v>0.89</v>
+      </c>
+      <c r="E187" s="28">
+        <v>1.02</v>
+      </c>
+      <c r="F187" s="31"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="34">
+        <v>46</v>
+      </c>
+      <c r="B188" s="26">
+        <v>2490</v>
+      </c>
+      <c r="C188" s="26">
+        <v>1388</v>
+      </c>
+      <c r="D188" s="26">
+        <v>1279</v>
+      </c>
+      <c r="E188" s="26">
+        <v>11813</v>
+      </c>
+      <c r="F188" s="29">
+        <v>16970</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="38"/>
+      <c r="B189" s="27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C189" s="27">
+        <v>0.08</v>
+      </c>
+      <c r="D189" s="27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E189" s="27">
+        <v>0.66</v>
+      </c>
+      <c r="F189" s="30">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="38"/>
+      <c r="B190" s="27">
+        <v>14.67</v>
+      </c>
+      <c r="C190" s="27">
+        <v>8.18</v>
+      </c>
+      <c r="D190" s="27">
+        <v>7.54</v>
+      </c>
+      <c r="E190" s="27">
+        <v>69.61</v>
+      </c>
+      <c r="F190" s="30"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="35"/>
+      <c r="B191" s="28">
+        <v>1.02</v>
+      </c>
+      <c r="C191" s="28">
+        <v>0.91</v>
+      </c>
+      <c r="D191" s="28">
+        <v>0.93</v>
+      </c>
+      <c r="E191" s="28">
+        <v>0.94</v>
+      </c>
+      <c r="F191" s="31"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="34">
+        <v>47</v>
+      </c>
+      <c r="B192" s="26">
+        <v>2474</v>
+      </c>
+      <c r="C192" s="26">
+        <v>1412</v>
+      </c>
+      <c r="D192" s="26">
+        <v>1160</v>
+      </c>
+      <c r="E192" s="26">
+        <v>11854</v>
+      </c>
+      <c r="F192" s="29">
+        <v>16900</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="38"/>
+      <c r="B193" s="27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C193" s="27">
+        <v>0.08</v>
+      </c>
+      <c r="D193" s="27">
+        <v>0.06</v>
+      </c>
+      <c r="E193" s="27">
+        <v>0.66</v>
+      </c>
+      <c r="F193" s="30">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="38"/>
+      <c r="B194" s="27">
+        <v>14.64</v>
+      </c>
+      <c r="C194" s="27">
+        <v>8.36</v>
+      </c>
+      <c r="D194" s="27">
+        <v>6.86</v>
+      </c>
+      <c r="E194" s="27">
+        <v>70.14</v>
+      </c>
+      <c r="F194" s="30"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="35"/>
+      <c r="B195" s="28">
+        <v>1.01</v>
+      </c>
+      <c r="C195" s="28">
+        <v>0.92</v>
+      </c>
+      <c r="D195" s="28">
+        <v>0.84</v>
+      </c>
+      <c r="E195" s="28">
+        <v>0.95</v>
+      </c>
+      <c r="F195" s="31"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" s="34">
+        <v>48</v>
+      </c>
+      <c r="B196" s="26">
+        <v>2542</v>
+      </c>
+      <c r="C196" s="26">
+        <v>1419</v>
+      </c>
+      <c r="D196" s="26">
+        <v>1198</v>
+      </c>
+      <c r="E196" s="26">
+        <v>11216</v>
+      </c>
+      <c r="F196" s="29">
+        <v>16375</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" s="38"/>
+      <c r="B197" s="27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C197" s="27">
+        <v>0.08</v>
+      </c>
+      <c r="D197" s="27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E197" s="27">
+        <v>0.63</v>
+      </c>
+      <c r="F197" s="30">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" s="38"/>
+      <c r="B198" s="27">
+        <v>15.52</v>
+      </c>
+      <c r="C198" s="27">
+        <v>8.67</v>
+      </c>
+      <c r="D198" s="27">
+        <v>7.32</v>
+      </c>
+      <c r="E198" s="27">
+        <v>68.489999999999995</v>
+      </c>
+      <c r="F198" s="30"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" s="35"/>
+      <c r="B199" s="28">
+        <v>1.04</v>
+      </c>
+      <c r="C199" s="28">
+        <v>0.93</v>
+      </c>
+      <c r="D199" s="28">
+        <v>0.87</v>
+      </c>
+      <c r="E199" s="28">
+        <v>0.89</v>
+      </c>
+      <c r="F199" s="31"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" s="34">
+        <v>49</v>
+      </c>
+      <c r="B200" s="26">
+        <v>2450</v>
+      </c>
+      <c r="C200" s="26">
+        <v>1462</v>
+      </c>
+      <c r="D200" s="26">
+        <v>1212</v>
+      </c>
+      <c r="E200" s="26">
+        <v>10996</v>
+      </c>
+      <c r="F200" s="29">
+        <v>16120</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="38"/>
+      <c r="B201" s="27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C201" s="27">
+        <v>0.08</v>
+      </c>
+      <c r="D201" s="27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E201" s="27">
+        <v>0.61</v>
+      </c>
+      <c r="F201" s="30">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" s="38"/>
+      <c r="B202" s="27">
+        <v>15.2</v>
+      </c>
+      <c r="C202" s="27">
+        <v>9.07</v>
+      </c>
+      <c r="D202" s="27">
+        <v>7.52</v>
+      </c>
+      <c r="E202" s="27">
+        <v>68.209999999999994</v>
+      </c>
+      <c r="F202" s="30"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" s="35"/>
+      <c r="B203" s="28">
+        <v>1</v>
+      </c>
+      <c r="C203" s="28">
+        <v>0.95</v>
+      </c>
+      <c r="D203" s="28">
+        <v>0.88</v>
+      </c>
+      <c r="E203" s="28">
+        <v>0.88</v>
+      </c>
+      <c r="F203" s="31"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" s="34">
+        <v>50</v>
+      </c>
+      <c r="B204" s="26">
+        <v>2381</v>
+      </c>
+      <c r="C204" s="26">
+        <v>1390</v>
+      </c>
+      <c r="D204" s="26">
+        <v>1233</v>
+      </c>
+      <c r="E204" s="26">
+        <v>11052</v>
+      </c>
+      <c r="F204" s="29">
+        <v>16056</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" s="38"/>
+      <c r="B205" s="27">
+        <v>0.13</v>
+      </c>
+      <c r="C205" s="27">
+        <v>0.08</v>
+      </c>
+      <c r="D205" s="27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E205" s="27">
+        <v>0.62</v>
+      </c>
+      <c r="F205" s="30">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="38"/>
+      <c r="B206" s="27">
+        <v>14.83</v>
+      </c>
+      <c r="C206" s="27">
+        <v>8.66</v>
+      </c>
+      <c r="D206" s="27">
+        <v>7.68</v>
+      </c>
+      <c r="E206" s="27">
+        <v>68.83</v>
+      </c>
+      <c r="F206" s="30"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="35"/>
+      <c r="B207" s="28">
+        <v>0.97</v>
+      </c>
+      <c r="C207" s="28">
+        <v>0.91</v>
+      </c>
+      <c r="D207" s="28">
+        <v>0.89</v>
+      </c>
+      <c r="E207" s="28">
+        <v>0.88</v>
+      </c>
+      <c r="F207" s="31"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" s="34">
+        <v>51</v>
+      </c>
+      <c r="B208" s="26">
+        <v>2242</v>
+      </c>
+      <c r="C208" s="26">
+        <v>1301</v>
+      </c>
+      <c r="D208" s="26">
+        <v>1220</v>
+      </c>
+      <c r="E208" s="26">
+        <v>11603</v>
+      </c>
+      <c r="F208" s="29">
+        <v>16366</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="38"/>
+      <c r="B209" s="27">
+        <v>0.13</v>
+      </c>
+      <c r="C209" s="27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D209" s="27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E209" s="27">
+        <v>0.65</v>
+      </c>
+      <c r="F209" s="30">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" s="38"/>
+      <c r="B210" s="27">
+        <v>13.7</v>
+      </c>
+      <c r="C210" s="27">
+        <v>7.95</v>
+      </c>
+      <c r="D210" s="27">
+        <v>7.45</v>
+      </c>
+      <c r="E210" s="27">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="F210" s="30"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="35"/>
+      <c r="B211" s="28">
+        <v>0.92</v>
+      </c>
+      <c r="C211" s="28">
+        <v>0.85</v>
+      </c>
+      <c r="D211" s="28">
+        <v>0.88</v>
+      </c>
+      <c r="E211" s="28">
+        <v>0.93</v>
+      </c>
+      <c r="F211" s="31"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" s="34">
+        <v>52</v>
+      </c>
+      <c r="B212" s="26">
+        <v>2189</v>
+      </c>
+      <c r="C212" s="26">
+        <v>1233</v>
+      </c>
+      <c r="D212" s="26">
+        <v>1244</v>
+      </c>
+      <c r="E212" s="26">
+        <v>11415</v>
+      </c>
+      <c r="F212" s="29">
+        <v>16081</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="38"/>
+      <c r="B213" s="27">
+        <v>0.12</v>
+      </c>
+      <c r="C213" s="27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D213" s="27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E213" s="27">
+        <v>0.64</v>
+      </c>
+      <c r="F213" s="30">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" s="38"/>
+      <c r="B214" s="27">
+        <v>13.61</v>
+      </c>
+      <c r="C214" s="27">
+        <v>7.67</v>
+      </c>
+      <c r="D214" s="27">
+        <v>7.74</v>
+      </c>
+      <c r="E214" s="27">
+        <v>70.98</v>
+      </c>
+      <c r="F214" s="30"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="35"/>
+      <c r="B215" s="28">
+        <v>0.89</v>
+      </c>
+      <c r="C215" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="D215" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="E215" s="28">
+        <v>0.91</v>
+      </c>
+      <c r="F215" s="31"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" s="34">
+        <v>53</v>
+      </c>
+      <c r="B216" s="26">
+        <v>2002</v>
+      </c>
+      <c r="C216" s="26">
+        <v>1282</v>
+      </c>
+      <c r="D216" s="26">
+        <v>1158</v>
+      </c>
+      <c r="E216" s="26">
+        <v>10774</v>
+      </c>
+      <c r="F216" s="29">
+        <v>15216</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" s="38"/>
+      <c r="B217" s="27">
+        <v>0.11</v>
+      </c>
+      <c r="C217" s="27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D217" s="27">
+        <v>0.06</v>
+      </c>
+      <c r="E217" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="F217" s="30">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" s="38"/>
+      <c r="B218" s="27">
+        <v>13.16</v>
+      </c>
+      <c r="C218" s="27">
+        <v>8.43</v>
+      </c>
+      <c r="D218" s="27">
+        <v>7.61</v>
+      </c>
+      <c r="E218" s="27">
+        <v>70.81</v>
+      </c>
+      <c r="F218" s="30"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" s="35"/>
+      <c r="B219" s="28">
+        <v>0.82</v>
+      </c>
+      <c r="C219" s="28">
+        <v>0.84</v>
+      </c>
+      <c r="D219" s="28">
+        <v>0.84</v>
+      </c>
+      <c r="E219" s="28">
+        <v>0.86</v>
+      </c>
+      <c r="F219" s="31"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" s="34">
+        <v>54</v>
+      </c>
+      <c r="B220" s="26">
+        <v>2161</v>
+      </c>
+      <c r="C220" s="26">
+        <v>1313</v>
+      </c>
+      <c r="D220" s="26">
+        <v>1133</v>
+      </c>
+      <c r="E220" s="26">
+        <v>10283</v>
+      </c>
+      <c r="F220" s="29">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" s="38"/>
+      <c r="B221" s="27">
+        <v>0.12</v>
+      </c>
+      <c r="C221" s="27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D221" s="27">
+        <v>0.06</v>
+      </c>
+      <c r="E221" s="27">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F221" s="30">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" s="38"/>
+      <c r="B222" s="27">
+        <v>14.51</v>
+      </c>
+      <c r="C222" s="27">
+        <v>8.82</v>
+      </c>
+      <c r="D222" s="27">
+        <v>7.61</v>
+      </c>
+      <c r="E222" s="27">
+        <v>69.06</v>
+      </c>
+      <c r="F222" s="30"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" s="35"/>
+      <c r="B223" s="28">
+        <v>0.88</v>
+      </c>
+      <c r="C223" s="28">
+        <v>0.86</v>
+      </c>
+      <c r="D223" s="28">
+        <v>0.82</v>
+      </c>
+      <c r="E223" s="28">
+        <v>0.82</v>
+      </c>
+      <c r="F223" s="31"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" s="34">
+        <v>55</v>
+      </c>
+      <c r="B224" s="26">
+        <v>2332</v>
+      </c>
+      <c r="C224" s="26">
+        <v>1313</v>
+      </c>
+      <c r="D224" s="26">
+        <v>1167</v>
+      </c>
+      <c r="E224" s="26">
+        <v>10106</v>
+      </c>
+      <c r="F224" s="29">
+        <v>14918</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" s="38"/>
+      <c r="B225" s="27">
+        <v>0.13</v>
+      </c>
+      <c r="C225" s="27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D225" s="27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E225" s="27">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F225" s="30">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" s="38"/>
+      <c r="B226" s="27">
+        <v>15.63</v>
+      </c>
+      <c r="C226" s="27">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D226" s="27">
+        <v>7.82</v>
+      </c>
+      <c r="E226" s="27">
+        <v>67.739999999999995</v>
+      </c>
+      <c r="F226" s="30"/>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" s="35"/>
+      <c r="B227" s="28">
+        <v>0.95</v>
+      </c>
+      <c r="C227" s="28">
+        <v>0.86</v>
+      </c>
+      <c r="D227" s="28">
+        <v>0.85</v>
+      </c>
+      <c r="E227" s="28">
+        <v>0.81</v>
+      </c>
+      <c r="F227" s="31"/>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" s="34">
+        <v>56</v>
+      </c>
+      <c r="B228" s="26">
+        <v>2262</v>
+      </c>
+      <c r="C228" s="26">
+        <v>1436</v>
+      </c>
+      <c r="D228" s="26">
+        <v>1216</v>
+      </c>
+      <c r="E228" s="26">
+        <v>10066</v>
+      </c>
+      <c r="F228" s="29">
+        <v>14980</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229" s="38"/>
+      <c r="B229" s="27">
+        <v>0.13</v>
+      </c>
+      <c r="C229" s="27">
+        <v>0.08</v>
+      </c>
+      <c r="D229" s="27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E229" s="27">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F229" s="30">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" s="38"/>
+      <c r="B230" s="27">
+        <v>15.1</v>
+      </c>
+      <c r="C230" s="27">
+        <v>9.59</v>
+      </c>
+      <c r="D230" s="27">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="E230" s="27">
+        <v>67.2</v>
+      </c>
+      <c r="F230" s="30"/>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231" s="35"/>
+      <c r="B231" s="28">
+        <v>0.92</v>
+      </c>
+      <c r="C231" s="28">
+        <v>0.94</v>
+      </c>
+      <c r="D231" s="28">
+        <v>0.88</v>
+      </c>
+      <c r="E231" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="F231" s="31"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232" s="34">
+        <v>57</v>
+      </c>
+      <c r="B232" s="26">
+        <v>2195</v>
+      </c>
+      <c r="C232" s="26">
+        <v>1361</v>
+      </c>
+      <c r="D232" s="26">
+        <v>1272</v>
+      </c>
+      <c r="E232" s="26">
+        <v>10622</v>
+      </c>
+      <c r="F232" s="29">
+        <v>15450</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233" s="38"/>
+      <c r="B233" s="27">
+        <v>0.12</v>
+      </c>
+      <c r="C233" s="27">
+        <v>0.08</v>
+      </c>
+      <c r="D233" s="27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E233" s="27">
+        <v>0.59</v>
+      </c>
+      <c r="F233" s="30">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234" s="38"/>
+      <c r="B234" s="27">
+        <v>14.21</v>
+      </c>
+      <c r="C234" s="27">
+        <v>8.81</v>
+      </c>
+      <c r="D234" s="27">
+        <v>8.23</v>
+      </c>
+      <c r="E234" s="27">
+        <v>68.75</v>
+      </c>
+      <c r="F234" s="30"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235" s="35"/>
+      <c r="B235" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="C235" s="28">
+        <v>0.89</v>
+      </c>
+      <c r="D235" s="28">
+        <v>0.92</v>
+      </c>
+      <c r="E235" s="28">
+        <v>0.85</v>
+      </c>
+      <c r="F235" s="31"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236" s="34">
+        <v>58</v>
+      </c>
+      <c r="B236" s="26">
+        <v>2277</v>
+      </c>
+      <c r="C236" s="26">
+        <v>1347</v>
+      </c>
+      <c r="D236" s="26">
+        <v>1287</v>
+      </c>
+      <c r="E236" s="26">
+        <v>10778</v>
+      </c>
+      <c r="F236" s="29">
+        <v>15689</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237" s="38"/>
+      <c r="B237" s="27">
+        <v>0.13</v>
+      </c>
+      <c r="C237" s="27">
+        <v>0.08</v>
+      </c>
+      <c r="D237" s="27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E237" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="F237" s="30">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238" s="38"/>
+      <c r="B238" s="27">
+        <v>14.51</v>
+      </c>
+      <c r="C238" s="27">
+        <v>8.59</v>
+      </c>
+      <c r="D238" s="27">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E238" s="27">
+        <v>68.7</v>
+      </c>
+      <c r="F238" s="30"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239" s="35"/>
+      <c r="B239" s="28">
+        <v>0.93</v>
+      </c>
+      <c r="C239" s="28">
+        <v>0.88</v>
+      </c>
+      <c r="D239" s="28">
+        <v>0.93</v>
+      </c>
+      <c r="E239" s="28">
+        <v>0.86</v>
+      </c>
+      <c r="F239" s="31"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240" s="34">
+        <v>59</v>
+      </c>
+      <c r="B240" s="26">
+        <v>2164</v>
+      </c>
+      <c r="C240" s="26">
+        <v>1408</v>
+      </c>
+      <c r="D240" s="26">
+        <v>1244</v>
+      </c>
+      <c r="E240" s="26">
+        <v>10856</v>
+      </c>
+      <c r="F240" s="29">
+        <v>15672</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241" s="38"/>
+      <c r="B241" s="27">
+        <v>0.12</v>
+      </c>
+      <c r="C241" s="27">
+        <v>0.08</v>
+      </c>
+      <c r="D241" s="27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E241" s="27">
+        <v>0.61</v>
+      </c>
+      <c r="F241" s="30">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242" s="38"/>
+      <c r="B242" s="27">
+        <v>13.81</v>
+      </c>
+      <c r="C242" s="27">
+        <v>8.98</v>
+      </c>
+      <c r="D242" s="27">
+        <v>7.94</v>
+      </c>
+      <c r="E242" s="27">
+        <v>69.27</v>
+      </c>
+      <c r="F242" s="30"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" s="35"/>
+      <c r="B243" s="28">
+        <v>0.88</v>
+      </c>
+      <c r="C243" s="28">
+        <v>0.92</v>
+      </c>
+      <c r="D243" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="E243" s="28">
+        <v>0.87</v>
+      </c>
+      <c r="F243" s="31"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" s="34">
+        <v>60</v>
+      </c>
+      <c r="B244" s="26">
+        <v>2121</v>
+      </c>
+      <c r="C244" s="26">
+        <v>1350</v>
+      </c>
+      <c r="D244" s="26">
+        <v>1241</v>
+      </c>
+      <c r="E244" s="26">
+        <v>11167</v>
+      </c>
+      <c r="F244" s="29">
+        <v>15879</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" s="38"/>
+      <c r="B245" s="27">
+        <v>0.12</v>
+      </c>
+      <c r="C245" s="27">
+        <v>0.08</v>
+      </c>
+      <c r="D245" s="27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E245" s="27">
+        <v>0.62</v>
+      </c>
+      <c r="F245" s="30">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246" s="38"/>
+      <c r="B246" s="27">
+        <v>13.36</v>
+      </c>
+      <c r="C246" s="27">
+        <v>8.5</v>
+      </c>
+      <c r="D246" s="27">
+        <v>7.82</v>
+      </c>
+      <c r="E246" s="27">
+        <v>70.33</v>
+      </c>
+      <c r="F246" s="30"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247" s="35"/>
+      <c r="B247" s="28">
+        <v>0.87</v>
+      </c>
+      <c r="C247" s="28">
+        <v>0.88</v>
+      </c>
+      <c r="D247" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="E247" s="28">
+        <v>0.89</v>
+      </c>
+      <c r="F247" s="31"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" s="34">
+        <v>61</v>
+      </c>
+      <c r="B248" s="26">
+        <v>2092</v>
+      </c>
+      <c r="C248" s="26">
+        <v>1258</v>
+      </c>
+      <c r="D248" s="26">
+        <v>1302</v>
+      </c>
+      <c r="E248" s="26">
+        <v>10951</v>
+      </c>
+      <c r="F248" s="29">
+        <v>15603</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" s="38"/>
+      <c r="B249" s="27">
+        <v>0.12</v>
+      </c>
+      <c r="C249" s="27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D249" s="27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E249" s="27">
+        <v>0.61</v>
+      </c>
+      <c r="F249" s="30">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A250" s="38"/>
+      <c r="B250" s="27">
+        <v>13.41</v>
+      </c>
+      <c r="C250" s="27">
+        <v>8.06</v>
+      </c>
+      <c r="D250" s="27">
+        <v>8.34</v>
+      </c>
+      <c r="E250" s="27">
+        <v>70.19</v>
+      </c>
+      <c r="F250" s="30"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251" s="35"/>
+      <c r="B251" s="28">
+        <v>0.86</v>
+      </c>
+      <c r="C251" s="28">
+        <v>0.82</v>
+      </c>
+      <c r="D251" s="28">
+        <v>0.94</v>
+      </c>
+      <c r="E251" s="28">
+        <v>0.87</v>
+      </c>
+      <c r="F251" s="31"/>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252" s="34">
+        <v>62</v>
+      </c>
+      <c r="B252" s="26">
+        <v>2401</v>
+      </c>
+      <c r="C252" s="26">
+        <v>1344</v>
+      </c>
+      <c r="D252" s="26">
+        <v>1243</v>
+      </c>
+      <c r="E252" s="26">
+        <v>10711</v>
+      </c>
+      <c r="F252" s="29">
+        <v>15699</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253" s="38"/>
+      <c r="B253" s="27">
+        <v>0.13</v>
+      </c>
+      <c r="C253" s="27">
+        <v>0.08</v>
+      </c>
+      <c r="D253" s="27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E253" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="F253" s="30">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" s="38"/>
+      <c r="B254" s="27">
+        <v>15.29</v>
+      </c>
+      <c r="C254" s="27">
+        <v>8.56</v>
+      </c>
+      <c r="D254" s="27">
+        <v>7.92</v>
+      </c>
+      <c r="E254" s="27">
+        <v>68.23</v>
+      </c>
+      <c r="F254" s="30"/>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255" s="35"/>
+      <c r="B255" s="28">
+        <v>0.98</v>
+      </c>
+      <c r="C255" s="28">
+        <v>0.88</v>
+      </c>
+      <c r="D255" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="E255" s="28">
+        <v>0.85</v>
+      </c>
+      <c r="F255" s="31"/>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A256" s="34">
+        <v>63</v>
+      </c>
+      <c r="B256" s="26">
+        <v>2370</v>
+      </c>
+      <c r="C256" s="26">
+        <v>1489</v>
+      </c>
+      <c r="D256" s="26">
+        <v>1187</v>
+      </c>
+      <c r="E256" s="26">
+        <v>10371</v>
+      </c>
+      <c r="F256" s="29">
+        <v>15417</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A257" s="38"/>
+      <c r="B257" s="27">
+        <v>0.13</v>
+      </c>
+      <c r="C257" s="27">
+        <v>0.08</v>
+      </c>
+      <c r="D257" s="27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E257" s="27">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F257" s="30">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A258" s="38"/>
+      <c r="B258" s="27">
+        <v>15.37</v>
+      </c>
+      <c r="C258" s="27">
+        <v>9.66</v>
+      </c>
+      <c r="D258" s="27">
+        <v>7.7</v>
+      </c>
+      <c r="E258" s="27">
+        <v>67.27</v>
+      </c>
+      <c r="F258" s="30"/>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A259" s="35"/>
+      <c r="B259" s="28">
+        <v>0.97</v>
+      </c>
+      <c r="C259" s="28">
+        <v>0.97</v>
+      </c>
+      <c r="D259" s="28">
+        <v>0.86</v>
+      </c>
+      <c r="E259" s="28">
+        <v>0.83</v>
+      </c>
+      <c r="F259" s="31"/>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A260" s="34">
+        <v>64</v>
+      </c>
+      <c r="B260" s="26">
+        <v>8869</v>
+      </c>
+      <c r="C260" s="26">
+        <v>8307</v>
+      </c>
+      <c r="D260" s="26">
+        <v>8940</v>
+      </c>
+      <c r="E260" s="26">
+        <v>9840</v>
+      </c>
+      <c r="F260" s="29">
+        <v>35956</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A261" s="38"/>
+      <c r="B261" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="C261" s="27">
+        <v>0.46</v>
+      </c>
+      <c r="D261" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="E261" s="27">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F261" s="30">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A262" s="38"/>
+      <c r="B262" s="27">
+        <v>24.67</v>
+      </c>
+      <c r="C262" s="27">
+        <v>23.1</v>
+      </c>
+      <c r="D262" s="27">
+        <v>24.86</v>
+      </c>
+      <c r="E262" s="27">
+        <v>27.37</v>
+      </c>
+      <c r="F262" s="30"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263" s="35"/>
+      <c r="B263" s="28">
+        <v>3.63</v>
+      </c>
+      <c r="C263" s="28">
+        <v>5.42</v>
+      </c>
+      <c r="D263" s="28">
+        <v>6.48</v>
+      </c>
+      <c r="E263" s="28">
+        <v>0.78</v>
+      </c>
+      <c r="F263" s="31"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B264" s="26">
+        <v>244582</v>
+      </c>
+      <c r="C264" s="26">
+        <v>153333</v>
+      </c>
+      <c r="D264" s="26">
+        <v>138036</v>
+      </c>
+      <c r="E264" s="40">
+        <v>1254097</v>
+      </c>
+      <c r="F264" s="29">
+        <v>1790048</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A265" s="39"/>
+      <c r="B265" s="32">
+        <v>13.66</v>
+      </c>
+      <c r="C265" s="32">
+        <v>8.57</v>
+      </c>
+      <c r="D265" s="32">
+        <v>7.71</v>
+      </c>
+      <c r="E265" s="41">
+        <v>70.06</v>
+      </c>
+      <c r="F265" s="33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E268" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="69">
+    <mergeCell ref="A256:A259"/>
+    <mergeCell ref="A260:A263"/>
+    <mergeCell ref="A264:A265"/>
+    <mergeCell ref="A232:A235"/>
+    <mergeCell ref="A236:A239"/>
+    <mergeCell ref="A240:A243"/>
+    <mergeCell ref="A244:A247"/>
+    <mergeCell ref="A248:A251"/>
+    <mergeCell ref="A252:A255"/>
+    <mergeCell ref="A208:A211"/>
+    <mergeCell ref="A212:A215"/>
+    <mergeCell ref="A216:A219"/>
+    <mergeCell ref="A220:A223"/>
+    <mergeCell ref="A224:A227"/>
+    <mergeCell ref="A228:A231"/>
+    <mergeCell ref="A184:A187"/>
+    <mergeCell ref="A188:A191"/>
+    <mergeCell ref="A192:A195"/>
+    <mergeCell ref="A196:A199"/>
+    <mergeCell ref="A200:A203"/>
+    <mergeCell ref="A204:A207"/>
+    <mergeCell ref="A160:A163"/>
+    <mergeCell ref="A164:A167"/>
+    <mergeCell ref="A168:A171"/>
+    <mergeCell ref="A172:A175"/>
+    <mergeCell ref="A176:A179"/>
+    <mergeCell ref="A180:A183"/>
+    <mergeCell ref="A136:A139"/>
+    <mergeCell ref="A140:A143"/>
+    <mergeCell ref="A144:A147"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="A152:A155"/>
+    <mergeCell ref="A156:A159"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="A128:A131"/>
+    <mergeCell ref="A132:A135"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A5D4AB-94CA-402F-B900-A8FD9136B613}">
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="2" max="2" width="52.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>